--- a/00.xlsx
+++ b/00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mysun/Desktop/ODL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1588C362-A078-3943-BD0D-DEB2F0500602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ECDBBD-C606-444E-A22F-70831F63B829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="-13900" windowWidth="25600" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="242">
   <si>
     <t>general</t>
   </si>
@@ -582,9 +582,6 @@
   </si>
   <si>
     <t>55.1k</t>
-  </si>
-  <si>
-    <t>Independent</t>
   </si>
   <si>
     <t>https://huggingface.co/datasets/Vezora/Open-Critic-GPT</t>
@@ -1301,6 +1298,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1315,21 +1327,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1666,35 +1663,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="D1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="30" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
       <c r="S1" s="14"/>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
     </row>
     <row r="2" spans="1:24" ht="14">
       <c r="D2" s="8" t="s">
@@ -1730,15 +1727,15 @@
       <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="28"/>
+      <c r="S2" s="33"/>
       <c r="T2" s="18" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1818,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1886,14 +1883,14 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="33"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16">
-      <c r="A6" s="33"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
         <v>36</v>
@@ -1954,7 +1951,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="16">
-      <c r="A7" s="33"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
         <v>37</v>
@@ -2015,7 +2012,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
-      <c r="A8" s="33"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -2078,14 +2075,14 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="33"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16">
-      <c r="A10" s="33"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
         <v>36</v>
@@ -2146,7 +2143,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="16">
-      <c r="A11" s="33"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>37</v>
@@ -2207,7 +2204,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="16">
-      <c r="A12" s="33"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -2270,14 +2267,14 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="33"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16">
-      <c r="A14" s="33"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>36</v>
@@ -2338,7 +2335,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="16">
-      <c r="A15" s="33"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>37</v>
@@ -2399,7 +2396,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="16">
-      <c r="A16" s="33"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -2462,14 +2459,14 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="33"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="16">
-      <c r="A18" s="33"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
         <v>36</v>
@@ -2530,7 +2527,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="16">
-      <c r="A19" s="33"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
         <v>37</v>
@@ -2591,7 +2588,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="16">
-      <c r="A20" s="33"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -2654,14 +2651,14 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="33"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="16">
-      <c r="A22" s="33"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
         <v>36</v>
@@ -2722,7 +2719,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16">
-      <c r="A23" s="33"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
         <v>37</v>
@@ -2783,7 +2780,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="16">
-      <c r="A24" s="33"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="21" t="s">
         <v>80</v>
       </c>
@@ -2846,14 +2843,14 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="33"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="16">
-      <c r="A26" s="33"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
         <v>36</v>
@@ -2914,7 +2911,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="16">
-      <c r="A27" s="33"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
         <v>37</v>
@@ -2975,7 +2972,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="16">
-      <c r="A28" s="33"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
@@ -3038,14 +3035,14 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="33"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="16">
-      <c r="A30" s="33"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
         <v>36</v>
@@ -3106,7 +3103,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="16">
-      <c r="A31" s="33"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
         <v>37</v>
@@ -3167,7 +3164,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="16">
-      <c r="A32" s="33"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8" t="s">
         <v>86</v>
       </c>
@@ -3230,14 +3227,14 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="33"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="16">
-      <c r="A34" s="33"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
         <v>36</v>
@@ -3298,7 +3295,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="16">
-      <c r="A35" s="33"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>37</v>
@@ -3359,7 +3356,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="16">
-      <c r="A36" s="33"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -3422,14 +3419,14 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="33"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="16">
-      <c r="A38" s="33"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
         <v>36</v>
@@ -3490,7 +3487,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="16">
-      <c r="A39" s="33"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
         <v>37</v>
@@ -3551,7 +3548,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="16">
-      <c r="A40" s="33"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="9" t="s">
         <v>46</v>
       </c>
@@ -3614,14 +3611,14 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="33"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="16">
-      <c r="A42" s="33"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
         <v>36</v>
@@ -3682,7 +3679,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="16">
-      <c r="A43" s="33"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
         <v>37</v>
@@ -3743,7 +3740,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="16">
-      <c r="A44" s="33"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
@@ -3806,14 +3803,14 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="33"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="16">
-      <c r="A46" s="33"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
         <v>36</v>
@@ -3874,7 +3871,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="16">
-      <c r="A47" s="33"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
         <v>37</v>
@@ -3935,7 +3932,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="16">
-      <c r="A48" s="33"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
@@ -3998,14 +3995,14 @@
       </c>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="33"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="16">
-      <c r="A50" s="33"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
         <v>36</v>
@@ -4066,7 +4063,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="16">
-      <c r="A51" s="33"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
         <v>37</v>
@@ -4127,7 +4124,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="16">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -4192,14 +4189,14 @@
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="35"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="16">
-      <c r="A55" s="35"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>36</v>
@@ -4260,7 +4257,7 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="16">
-      <c r="A56" s="35"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>37</v>
@@ -4321,7 +4318,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="16">
-      <c r="A57" s="35"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
@@ -4384,14 +4381,14 @@
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="35"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="16">
-      <c r="A59" s="35"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>36</v>
@@ -4452,7 +4449,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="16">
-      <c r="A60" s="35"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>37</v>
@@ -4513,7 +4510,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="16">
-      <c r="A61" s="35"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="4" t="s">
         <v>50</v>
       </c>
@@ -4576,14 +4573,14 @@
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="35"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="16">
-      <c r="A63" s="35"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>36</v>
@@ -4644,7 +4641,7 @@
       </c>
     </row>
     <row r="64" spans="1:24" ht="16">
-      <c r="A64" s="35"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>37</v>
@@ -4705,7 +4702,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="16">
-      <c r="A65" s="35"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
         <v>115</v>
       </c>
@@ -4768,14 +4765,14 @@
       </c>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="35"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="16">
-      <c r="A67" s="35"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>36</v>
@@ -4836,7 +4833,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="16">
-      <c r="A68" s="35"/>
+      <c r="A68" s="30"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>37</v>
@@ -4897,7 +4894,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="16">
-      <c r="A69" s="35"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="23" t="s">
         <v>116</v>
       </c>
@@ -4960,14 +4957,14 @@
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="35"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="16">
-      <c r="A71" s="35"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>36</v>
@@ -5028,7 +5025,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="16">
-      <c r="A72" s="35"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>37</v>
@@ -5089,7 +5086,7 @@
       </c>
     </row>
     <row r="73" spans="1:24" ht="16">
-      <c r="A73" s="35"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
@@ -5152,14 +5149,14 @@
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="35"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="16">
-      <c r="A75" s="35"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>36</v>
@@ -5220,7 +5217,7 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="16">
-      <c r="A76" s="35"/>
+      <c r="A76" s="30"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>37</v>
@@ -5281,7 +5278,7 @@
       </c>
     </row>
     <row r="77" spans="1:24" ht="16">
-      <c r="A77" s="35"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="4" t="s">
         <v>52</v>
       </c>
@@ -5344,14 +5341,14 @@
       </c>
     </row>
     <row r="78" spans="1:24">
-      <c r="A78" s="35"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="16">
-      <c r="A79" s="35"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
         <v>36</v>
@@ -5412,7 +5409,7 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="16">
-      <c r="A80" s="35"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>37</v>
@@ -5473,7 +5470,7 @@
       </c>
     </row>
     <row r="81" spans="1:24" ht="16">
-      <c r="A81" s="35"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="4" t="s">
         <v>53</v>
       </c>
@@ -5536,14 +5533,14 @@
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="35"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="16">
-      <c r="A83" s="35"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>36</v>
@@ -5604,7 +5601,7 @@
       </c>
     </row>
     <row r="84" spans="1:24" ht="16">
-      <c r="A84" s="35"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>37</v>
@@ -5665,7 +5662,7 @@
       </c>
     </row>
     <row r="85" spans="1:24" ht="16">
-      <c r="A85" s="35"/>
+      <c r="A85" s="30"/>
       <c r="B85" s="4" t="s">
         <v>54</v>
       </c>
@@ -5728,14 +5725,14 @@
       </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86" s="35"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="16">
-      <c r="A87" s="35"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>36</v>
@@ -5796,7 +5793,7 @@
       </c>
     </row>
     <row r="88" spans="1:24" ht="16">
-      <c r="A88" s="35"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>37</v>
@@ -5857,7 +5854,7 @@
       </c>
     </row>
     <row r="89" spans="1:24" ht="16">
-      <c r="A89" s="35"/>
+      <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
         <v>132</v>
       </c>
@@ -5920,14 +5917,14 @@
       </c>
     </row>
     <row r="90" spans="1:24">
-      <c r="A90" s="35"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="16">
-      <c r="A91" s="35"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
         <v>36</v>
@@ -5988,7 +5985,7 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="16">
-      <c r="A92" s="35"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>37</v>
@@ -6049,7 +6046,7 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="16">
-      <c r="A93" s="35"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
         <v>137</v>
       </c>
@@ -6112,14 +6109,14 @@
       </c>
     </row>
     <row r="94" spans="1:24">
-      <c r="A94" s="35"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="16">
-      <c r="A95" s="35"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
         <v>36</v>
@@ -6180,7 +6177,7 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="16">
-      <c r="A96" s="35"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
         <v>37</v>
@@ -6241,7 +6238,7 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="16">
-      <c r="A97" s="35"/>
+      <c r="A97" s="30"/>
       <c r="B97" s="4" t="s">
         <v>142</v>
       </c>
@@ -6304,14 +6301,14 @@
       </c>
     </row>
     <row r="98" spans="1:24">
-      <c r="A98" s="35"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="16">
-      <c r="A99" s="35"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
         <v>36</v>
@@ -6372,7 +6369,7 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="16">
-      <c r="A100" s="35"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
         <v>37</v>
@@ -6433,7 +6430,7 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="16">
-      <c r="A101" s="35"/>
+      <c r="A101" s="30"/>
       <c r="B101" s="23" t="s">
         <v>145</v>
       </c>
@@ -6496,14 +6493,14 @@
       </c>
     </row>
     <row r="102" spans="1:24">
-      <c r="A102" s="35"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="16">
-      <c r="A103" s="35"/>
+      <c r="A103" s="30"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
         <v>36</v>
@@ -6564,7 +6561,7 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="16">
-      <c r="A104" s="35"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="s">
         <v>37</v>
@@ -6625,7 +6622,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="16">
-      <c r="A105" s="35"/>
+      <c r="A105" s="30"/>
       <c r="B105" s="23" t="s">
         <v>147</v>
       </c>
@@ -6688,14 +6685,14 @@
       </c>
     </row>
     <row r="106" spans="1:24">
-      <c r="A106" s="35"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="16">
-      <c r="A107" s="35"/>
+      <c r="A107" s="30"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
         <v>36</v>
@@ -6756,7 +6753,7 @@
       </c>
     </row>
     <row r="108" spans="1:24" ht="16">
-      <c r="A108" s="35"/>
+      <c r="A108" s="30"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2" t="s">
         <v>37</v>
@@ -6817,7 +6814,7 @@
       </c>
     </row>
     <row r="109" spans="1:24" ht="16">
-      <c r="A109" s="35"/>
+      <c r="A109" s="30"/>
       <c r="B109" s="23" t="s">
         <v>148</v>
       </c>
@@ -6880,14 +6877,14 @@
       </c>
     </row>
     <row r="110" spans="1:24">
-      <c r="A110" s="35"/>
+      <c r="A110" s="30"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="16">
-      <c r="A111" s="35"/>
+      <c r="A111" s="30"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
         <v>36</v>
@@ -6948,7 +6945,7 @@
       </c>
     </row>
     <row r="112" spans="1:24" ht="16">
-      <c r="A112" s="35"/>
+      <c r="A112" s="30"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
         <v>37</v>
@@ -7009,7 +7006,7 @@
       </c>
     </row>
     <row r="113" spans="1:24" ht="16">
-      <c r="A113" s="35"/>
+      <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
         <v>152</v>
       </c>
@@ -7072,14 +7069,14 @@
       </c>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="35"/>
+      <c r="A114" s="30"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="16">
-      <c r="A115" s="35"/>
+      <c r="A115" s="30"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
         <v>36</v>
@@ -7140,7 +7137,7 @@
       </c>
     </row>
     <row r="116" spans="1:24" ht="16">
-      <c r="A116" s="35"/>
+      <c r="A116" s="30"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
         <v>37</v>
@@ -7201,7 +7198,7 @@
       </c>
     </row>
     <row r="117" spans="1:24" ht="14">
-      <c r="A117" s="35"/>
+      <c r="A117" s="30"/>
       <c r="B117" s="4" t="s">
         <v>55</v>
       </c>
@@ -7210,29 +7207,29 @@
       </c>
     </row>
     <row r="118" spans="1:24">
-      <c r="A118" s="35"/>
+      <c r="A118" s="30"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:24">
-      <c r="A119" s="35"/>
+      <c r="A119" s="30"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:24">
-      <c r="A120" s="35"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="16">
-      <c r="A123" s="34" t="s">
-        <v>182</v>
+      <c r="A123" s="29" t="s">
+        <v>181</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>56</v>
@@ -7296,14 +7293,14 @@
       </c>
     </row>
     <row r="124" spans="1:24">
-      <c r="A124" s="34"/>
+      <c r="A124" s="29"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="16">
-      <c r="A125" s="34"/>
+      <c r="A125" s="29"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
         <v>36</v>
@@ -7364,7 +7361,7 @@
       </c>
     </row>
     <row r="126" spans="1:24" ht="16">
-      <c r="A126" s="34"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
         <v>37</v>
@@ -7425,7 +7422,7 @@
       </c>
     </row>
     <row r="127" spans="1:24" ht="16">
-      <c r="A127" s="34"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="10" t="s">
         <v>57</v>
       </c>
@@ -7488,14 +7485,14 @@
       </c>
     </row>
     <row r="128" spans="1:24">
-      <c r="A128" s="34"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="16">
-      <c r="A129" s="34"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
         <v>36</v>
@@ -7556,7 +7553,7 @@
       </c>
     </row>
     <row r="130" spans="1:24" ht="16">
-      <c r="A130" s="34"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
         <v>37</v>
@@ -7617,7 +7614,7 @@
       </c>
     </row>
     <row r="131" spans="1:24" ht="16">
-      <c r="A131" s="34"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="10" t="s">
         <v>58</v>
       </c>
@@ -7680,14 +7677,14 @@
       </c>
     </row>
     <row r="132" spans="1:24">
-      <c r="A132" s="34"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="16">
-      <c r="A133" s="34"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
         <v>36</v>
@@ -7748,7 +7745,7 @@
       </c>
     </row>
     <row r="134" spans="1:24" ht="16">
-      <c r="A134" s="34"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
         <v>37</v>
@@ -7809,7 +7806,7 @@
       </c>
     </row>
     <row r="135" spans="1:24" ht="16">
-      <c r="A135" s="34"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="10" t="s">
         <v>59</v>
       </c>
@@ -7872,14 +7869,14 @@
       </c>
     </row>
     <row r="136" spans="1:24">
-      <c r="A136" s="34"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="16">
-      <c r="A137" s="34"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
         <v>36</v>
@@ -7940,7 +7937,7 @@
       </c>
     </row>
     <row r="138" spans="1:24" ht="16">
-      <c r="A138" s="34"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
         <v>37</v>
@@ -8001,7 +7998,7 @@
       </c>
     </row>
     <row r="139" spans="1:24" ht="16">
-      <c r="A139" s="34"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="10" t="s">
         <v>60</v>
       </c>
@@ -8064,14 +8061,14 @@
       </c>
     </row>
     <row r="140" spans="1:24">
-      <c r="A140" s="34"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="16">
-      <c r="A141" s="34"/>
+      <c r="A141" s="29"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6" t="s">
         <v>36</v>
@@ -8132,7 +8129,7 @@
       </c>
     </row>
     <row r="142" spans="1:24" ht="16">
-      <c r="A142" s="34"/>
+      <c r="A142" s="29"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6" t="s">
         <v>37</v>
@@ -8193,7 +8190,7 @@
       </c>
     </row>
     <row r="143" spans="1:24" ht="16">
-      <c r="A143" s="34"/>
+      <c r="A143" s="29"/>
       <c r="B143" s="10" t="s">
         <v>61</v>
       </c>
@@ -8256,14 +8253,14 @@
       </c>
     </row>
     <row r="144" spans="1:24">
-      <c r="A144" s="34"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="16">
-      <c r="A145" s="34"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
         <v>36</v>
@@ -8324,7 +8321,7 @@
       </c>
     </row>
     <row r="146" spans="1:24" ht="16">
-      <c r="A146" s="34"/>
+      <c r="A146" s="29"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
         <v>37</v>
@@ -8385,7 +8382,7 @@
       </c>
     </row>
     <row r="147" spans="1:24" ht="16">
-      <c r="A147" s="34"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="10" t="s">
         <v>62</v>
       </c>
@@ -8448,14 +8445,14 @@
       </c>
     </row>
     <row r="148" spans="1:24">
-      <c r="A148" s="34"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="16">
-      <c r="A149" s="34"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
         <v>36</v>
@@ -8516,7 +8513,7 @@
       </c>
     </row>
     <row r="150" spans="1:24" ht="16">
-      <c r="A150" s="34"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6" t="s">
         <v>37</v>
@@ -8577,7 +8574,7 @@
       </c>
     </row>
     <row r="151" spans="1:24" ht="16">
-      <c r="A151" s="34"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="10" t="s">
         <v>63</v>
       </c>
@@ -8640,14 +8637,14 @@
       </c>
     </row>
     <row r="152" spans="1:24">
-      <c r="A152" s="34"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="16">
-      <c r="A153" s="34"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
         <v>36</v>
@@ -8708,7 +8705,7 @@
       </c>
     </row>
     <row r="154" spans="1:24" ht="16">
-      <c r="A154" s="34"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6" t="s">
         <v>37</v>
@@ -8769,7 +8766,7 @@
       </c>
     </row>
     <row r="155" spans="1:24" ht="16">
-      <c r="A155" s="34"/>
+      <c r="A155" s="29"/>
       <c r="B155" s="10" t="s">
         <v>64</v>
       </c>
@@ -8832,7 +8829,7 @@
       </c>
     </row>
     <row r="156" spans="1:24" ht="16">
-      <c r="A156" s="34"/>
+      <c r="A156" s="29"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6" t="s">
         <v>35</v>
@@ -8893,7 +8890,7 @@
       </c>
     </row>
     <row r="157" spans="1:24" ht="16">
-      <c r="A157" s="34"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
         <v>36</v>
@@ -8954,7 +8951,7 @@
       </c>
     </row>
     <row r="158" spans="1:24" ht="16">
-      <c r="A158" s="34"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6" t="s">
         <v>37</v>
@@ -8979,7 +8976,7 @@
       <c r="X158" s="3"/>
     </row>
     <row r="159" spans="1:24" ht="16">
-      <c r="A159" s="34"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="10" t="s">
         <v>65</v>
       </c>
@@ -9042,14 +9039,14 @@
       </c>
     </row>
     <row r="160" spans="1:24">
-      <c r="A160" s="34"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="16">
-      <c r="A161" s="34"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6" t="s">
         <v>36</v>
@@ -9110,7 +9107,7 @@
       </c>
     </row>
     <row r="162" spans="1:24" ht="16">
-      <c r="A162" s="34"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6" t="s">
         <v>37</v>
@@ -9171,9 +9168,9 @@
       </c>
     </row>
     <row r="163" spans="1:24" ht="16">
-      <c r="A163" s="34"/>
+      <c r="A163" s="29"/>
       <c r="B163" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>34</v>
@@ -9234,14 +9231,14 @@
       </c>
     </row>
     <row r="164" spans="1:24">
-      <c r="A164" s="34"/>
+      <c r="A164" s="29"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="16">
-      <c r="A165" s="34"/>
+      <c r="A165" s="29"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
         <v>36</v>
@@ -9302,7 +9299,7 @@
       </c>
     </row>
     <row r="166" spans="1:24" ht="16">
-      <c r="A166" s="34"/>
+      <c r="A166" s="29"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6" t="s">
         <v>37</v>
@@ -9363,9 +9360,9 @@
       </c>
     </row>
     <row r="167" spans="1:24" ht="16">
-      <c r="A167" s="34"/>
+      <c r="A167" s="29"/>
       <c r="B167" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>34</v>
@@ -9426,14 +9423,14 @@
       </c>
     </row>
     <row r="168" spans="1:24">
-      <c r="A168" s="34"/>
+      <c r="A168" s="29"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="16">
-      <c r="A169" s="34"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6" t="s">
         <v>36</v>
@@ -9494,7 +9491,7 @@
       </c>
     </row>
     <row r="170" spans="1:24" ht="16">
-      <c r="A170" s="34"/>
+      <c r="A170" s="29"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6" t="s">
         <v>37</v>
@@ -9555,9 +9552,9 @@
       </c>
     </row>
     <row r="171" spans="1:24" ht="16">
-      <c r="A171" s="34"/>
+      <c r="A171" s="29"/>
       <c r="B171" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>34</v>
@@ -9618,14 +9615,14 @@
       </c>
     </row>
     <row r="172" spans="1:24">
-      <c r="A172" s="34"/>
+      <c r="A172" s="29"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="16">
-      <c r="A173" s="34"/>
+      <c r="A173" s="29"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
         <v>36</v>
@@ -9686,7 +9683,7 @@
       </c>
     </row>
     <row r="174" spans="1:24" ht="16">
-      <c r="A174" s="34"/>
+      <c r="A174" s="29"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
         <v>37</v>
@@ -9747,9 +9744,9 @@
       </c>
     </row>
     <row r="175" spans="1:24" ht="16">
-      <c r="A175" s="34"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>34</v>
@@ -9810,14 +9807,14 @@
       </c>
     </row>
     <row r="176" spans="1:24">
-      <c r="A176" s="34"/>
+      <c r="A176" s="29"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="16">
-      <c r="A177" s="34"/>
+      <c r="A177" s="29"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6" t="s">
         <v>36</v>
@@ -9878,7 +9875,7 @@
       </c>
     </row>
     <row r="178" spans="1:24" ht="16">
-      <c r="A178" s="34"/>
+      <c r="A178" s="29"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
         <v>37</v>
@@ -9939,9 +9936,9 @@
       </c>
     </row>
     <row r="179" spans="1:24" ht="16">
-      <c r="A179" s="34"/>
+      <c r="A179" s="29"/>
       <c r="B179" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>34</v>
@@ -10002,14 +9999,14 @@
       </c>
     </row>
     <row r="180" spans="1:24">
-      <c r="A180" s="34"/>
+      <c r="A180" s="29"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="16">
-      <c r="A181" s="34"/>
+      <c r="A181" s="29"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6" t="s">
         <v>36</v>
@@ -10070,7 +10067,7 @@
       </c>
     </row>
     <row r="182" spans="1:24" ht="16">
-      <c r="A182" s="34"/>
+      <c r="A182" s="29"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6" t="s">
         <v>37</v>
@@ -10131,9 +10128,9 @@
       </c>
     </row>
     <row r="183" spans="1:24" ht="28">
-      <c r="A183" s="34"/>
+      <c r="A183" s="29"/>
       <c r="B183" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>34</v>
@@ -10194,14 +10191,14 @@
       </c>
     </row>
     <row r="184" spans="1:24">
-      <c r="A184" s="34"/>
+      <c r="A184" s="29"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="16">
-      <c r="A185" s="34"/>
+      <c r="A185" s="29"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6" t="s">
         <v>36</v>
@@ -10262,7 +10259,7 @@
       </c>
     </row>
     <row r="186" spans="1:24" ht="16">
-      <c r="A186" s="34"/>
+      <c r="A186" s="29"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6" t="s">
         <v>37</v>
@@ -10323,9 +10320,9 @@
       </c>
     </row>
     <row r="187" spans="1:24" ht="16">
-      <c r="A187" s="34"/>
+      <c r="A187" s="29"/>
       <c r="B187" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>34</v>
@@ -10386,7 +10383,7 @@
       </c>
     </row>
     <row r="188" spans="1:24" ht="16">
-      <c r="A188" s="34"/>
+      <c r="A188" s="29"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6" t="s">
         <v>35</v>
@@ -10447,7 +10444,7 @@
       </c>
     </row>
     <row r="189" spans="1:24" ht="16">
-      <c r="A189" s="34"/>
+      <c r="A189" s="29"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6" t="s">
         <v>36</v>
@@ -10508,138 +10505,138 @@
       </c>
     </row>
     <row r="190" spans="1:24">
-      <c r="A190" s="34"/>
+      <c r="A190" s="29"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:24">
-      <c r="A192" s="36" t="s">
+      <c r="A192" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="193" spans="1:24">
-      <c r="A193" s="36"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:24">
-      <c r="A194" s="36"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:24">
-      <c r="A195" s="36"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="14">
-      <c r="A196" s="36"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:24">
-      <c r="A197" s="36"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:24">
-      <c r="A198" s="36"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:24">
-      <c r="A199" s="36"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="14">
-      <c r="A200" s="36"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="201" spans="1:24">
-      <c r="A201" s="36"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:24">
-      <c r="A202" s="36"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:24">
-      <c r="A203" s="36"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="14">
-      <c r="A204" s="36"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:24">
-      <c r="A205" s="36"/>
+      <c r="A205" s="31"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:24">
-      <c r="A206" s="36"/>
+      <c r="A206" s="31"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:24">
-      <c r="A207" s="36"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="16">
-      <c r="A208" s="36"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>34</v>
@@ -10700,14 +10697,14 @@
       </c>
     </row>
     <row r="209" spans="1:24">
-      <c r="A209" s="36"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="16">
-      <c r="A210" s="36"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5" t="s">
         <v>36</v>
@@ -10768,7 +10765,7 @@
       </c>
     </row>
     <row r="211" spans="1:24" ht="16">
-      <c r="A211" s="36"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5" t="s">
         <v>37</v>
@@ -10829,97 +10826,97 @@
       </c>
     </row>
     <row r="212" spans="1:24" ht="14">
-      <c r="A212" s="36"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="213" spans="1:24">
-      <c r="A213" s="36"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:24">
-      <c r="A214" s="36"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:24">
-      <c r="A215" s="36"/>
+      <c r="A215" s="31"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="14">
-      <c r="A216" s="36"/>
+      <c r="A216" s="31"/>
       <c r="B216" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:24">
-      <c r="A217" s="36"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:24">
-      <c r="A218" s="36"/>
+      <c r="A218" s="31"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:24">
-      <c r="A219" s="36"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="14">
-      <c r="A220" s="36"/>
+      <c r="A220" s="31"/>
       <c r="B220" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="221" spans="1:24">
-      <c r="A221" s="36"/>
+      <c r="A221" s="31"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:24">
-      <c r="A222" s="36"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:24">
-      <c r="A223" s="36"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:24" ht="14">
-      <c r="A224" s="36"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="7" t="s">
         <v>66</v>
       </c>
@@ -10928,28 +10925,28 @@
       </c>
     </row>
     <row r="225" spans="1:24">
-      <c r="A225" s="36"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:24">
-      <c r="A226" s="36"/>
+      <c r="A226" s="31"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:24">
-      <c r="A227" s="36"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:24">
-      <c r="A228" s="36"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="17" t="s">
         <v>67</v>
       </c>
@@ -10958,21 +10955,21 @@
       </c>
     </row>
     <row r="229" spans="1:24">
-      <c r="A229" s="36"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:24">
-      <c r="A230" s="36"/>
+      <c r="A230" s="31"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:24">
-      <c r="A231" s="36"/>
+      <c r="A231" s="31"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5" t="s">
         <v>37</v>
@@ -10980,7 +10977,7 @@
     </row>
     <row r="232" spans="1:24">
       <c r="B232" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D232" s="11">
         <v>21.83</v>
@@ -11081,16 +11078,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A4:A51"/>
     <mergeCell ref="A123:A190"/>
     <mergeCell ref="A53:A120"/>
     <mergeCell ref="A192:A231"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11120,35 +11117,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="D1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="30" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
       <c r="S1" s="14"/>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
     </row>
     <row r="2" spans="1:24" ht="14">
       <c r="D2" s="8" t="s">
@@ -11184,15 +11181,15 @@
       <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="28"/>
+      <c r="S2" s="33"/>
       <c r="T2" s="18" t="s">
         <v>17</v>
       </c>
@@ -11275,7 +11272,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -11340,7 +11337,7 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="33"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>35</v>
@@ -11348,7 +11345,7 @@
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:24" ht="16">
-      <c r="A6" s="33"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
         <v>36</v>
@@ -11409,7 +11406,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="16">
-      <c r="A7" s="33"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
         <v>37</v>
@@ -11470,7 +11467,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
-      <c r="A8" s="33"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -11533,14 +11530,14 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="33"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16">
-      <c r="A10" s="33"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
         <v>36</v>
@@ -11601,7 +11598,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="16">
-      <c r="A11" s="33"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>37</v>
@@ -11662,7 +11659,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="16">
-      <c r="A12" s="33"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -11725,14 +11722,14 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="33"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16">
-      <c r="A14" s="33"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>36</v>
@@ -11793,7 +11790,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="16">
-      <c r="A15" s="33"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>37</v>
@@ -11854,7 +11851,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="16">
-      <c r="A16" s="33"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -11917,7 +11914,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="16">
-      <c r="A17" s="33"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
         <v>35</v>
@@ -11978,7 +11975,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="16">
-      <c r="A18" s="33"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
         <v>36</v>
@@ -12039,14 +12036,14 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="33"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="16">
-      <c r="A20" s="33"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -12109,14 +12106,14 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="33"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="16">
-      <c r="A22" s="33"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
         <v>36</v>
@@ -12177,7 +12174,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16">
-      <c r="A23" s="33"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
         <v>37</v>
@@ -12238,7 +12235,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="16">
-      <c r="A24" s="33"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="21" t="s">
         <v>80</v>
       </c>
@@ -12301,14 +12298,14 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="33"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="16">
-      <c r="A26" s="33"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
         <v>36</v>
@@ -12369,7 +12366,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="16">
-      <c r="A27" s="33"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
         <v>37</v>
@@ -12430,7 +12427,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="16">
-      <c r="A28" s="33"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
@@ -12493,14 +12490,14 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="33"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="16">
-      <c r="A30" s="33"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
         <v>36</v>
@@ -12561,7 +12558,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="16">
-      <c r="A31" s="33"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
         <v>37</v>
@@ -12622,7 +12619,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="16">
-      <c r="A32" s="33"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8" t="s">
         <v>86</v>
       </c>
@@ -12685,14 +12682,14 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="33"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="16">
-      <c r="A34" s="33"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
         <v>36</v>
@@ -12753,7 +12750,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="16">
-      <c r="A35" s="33"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>37</v>
@@ -12814,7 +12811,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="16">
-      <c r="A36" s="33"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -12877,14 +12874,14 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="33"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="16">
-      <c r="A38" s="33"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
         <v>36</v>
@@ -12945,7 +12942,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="16">
-      <c r="A39" s="33"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
         <v>37</v>
@@ -13006,7 +13003,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="16">
-      <c r="A40" s="33"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="9" t="s">
         <v>46</v>
       </c>
@@ -13069,14 +13066,14 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="33"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="16">
-      <c r="A42" s="33"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
         <v>36</v>
@@ -13137,7 +13134,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="16">
-      <c r="A43" s="33"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
         <v>37</v>
@@ -13198,7 +13195,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="16">
-      <c r="A44" s="33"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
@@ -13261,14 +13258,14 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="33"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="16">
-      <c r="A46" s="33"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
         <v>36</v>
@@ -13329,7 +13326,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="16">
-      <c r="A47" s="33"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
         <v>37</v>
@@ -13390,7 +13387,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="16">
-      <c r="A48" s="33"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
@@ -13453,7 +13450,7 @@
       </c>
     </row>
     <row r="49" spans="1:24" ht="16">
-      <c r="A49" s="33"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
         <v>35</v>
@@ -13469,7 +13466,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="16">
-      <c r="A50" s="33"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
         <v>36</v>
@@ -13530,7 +13527,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="16">
-      <c r="A51" s="33"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
         <v>37</v>
@@ -13591,7 +13588,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="16">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -13656,14 +13653,14 @@
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="35"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="16">
-      <c r="A55" s="35"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>36</v>
@@ -13724,7 +13721,7 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="16">
-      <c r="A56" s="35"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>37</v>
@@ -13785,7 +13782,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="16">
-      <c r="A57" s="35"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
@@ -13848,14 +13845,14 @@
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="35"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="16">
-      <c r="A59" s="35"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>36</v>
@@ -13916,7 +13913,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="16">
-      <c r="A60" s="35"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>37</v>
@@ -13977,7 +13974,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="16">
-      <c r="A61" s="35"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="4" t="s">
         <v>50</v>
       </c>
@@ -14040,14 +14037,14 @@
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="35"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="16">
-      <c r="A63" s="35"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>36</v>
@@ -14108,7 +14105,7 @@
       </c>
     </row>
     <row r="64" spans="1:24" ht="16">
-      <c r="A64" s="35"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>37</v>
@@ -14169,7 +14166,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="16">
-      <c r="A65" s="35"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
         <v>115</v>
       </c>
@@ -14232,14 +14229,14 @@
       </c>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="35"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="16">
-      <c r="A67" s="35"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>36</v>
@@ -14300,7 +14297,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="16">
-      <c r="A68" s="35"/>
+      <c r="A68" s="30"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>37</v>
@@ -14361,7 +14358,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="16">
-      <c r="A69" s="35"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="23" t="s">
         <v>116</v>
       </c>
@@ -14424,14 +14421,14 @@
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="35"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="16">
-      <c r="A71" s="35"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>36</v>
@@ -14492,7 +14489,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="16">
-      <c r="A72" s="35"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>37</v>
@@ -14553,7 +14550,7 @@
       </c>
     </row>
     <row r="73" spans="1:24" ht="16">
-      <c r="A73" s="35"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
@@ -14616,14 +14613,14 @@
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="35"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="16">
-      <c r="A75" s="35"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>36</v>
@@ -14684,7 +14681,7 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="16">
-      <c r="A76" s="35"/>
+      <c r="A76" s="30"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>37</v>
@@ -14745,7 +14742,7 @@
       </c>
     </row>
     <row r="77" spans="1:24" ht="16">
-      <c r="A77" s="35"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="4" t="s">
         <v>52</v>
       </c>
@@ -14808,14 +14805,14 @@
       </c>
     </row>
     <row r="78" spans="1:24">
-      <c r="A78" s="35"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="16">
-      <c r="A79" s="35"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
         <v>36</v>
@@ -14876,7 +14873,7 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="16">
-      <c r="A80" s="35"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>37</v>
@@ -14937,7 +14934,7 @@
       </c>
     </row>
     <row r="81" spans="1:24" ht="16">
-      <c r="A81" s="35"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="4" t="s">
         <v>53</v>
       </c>
@@ -15000,14 +14997,14 @@
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="35"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="16">
-      <c r="A83" s="35"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>36</v>
@@ -15068,7 +15065,7 @@
       </c>
     </row>
     <row r="84" spans="1:24" ht="16">
-      <c r="A84" s="35"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>37</v>
@@ -15129,7 +15126,7 @@
       </c>
     </row>
     <row r="85" spans="1:24" ht="16">
-      <c r="A85" s="35"/>
+      <c r="A85" s="30"/>
       <c r="B85" s="4" t="s">
         <v>54</v>
       </c>
@@ -15192,14 +15189,14 @@
       </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86" s="35"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="16">
-      <c r="A87" s="35"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>36</v>
@@ -15260,7 +15257,7 @@
       </c>
     </row>
     <row r="88" spans="1:24" ht="16">
-      <c r="A88" s="35"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>37</v>
@@ -15321,7 +15318,7 @@
       </c>
     </row>
     <row r="89" spans="1:24" ht="16">
-      <c r="A89" s="35"/>
+      <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
         <v>132</v>
       </c>
@@ -15384,14 +15381,14 @@
       </c>
     </row>
     <row r="90" spans="1:24">
-      <c r="A90" s="35"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="16">
-      <c r="A91" s="35"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
         <v>36</v>
@@ -15452,7 +15449,7 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="16">
-      <c r="A92" s="35"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>37</v>
@@ -15513,7 +15510,7 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="16">
-      <c r="A93" s="35"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
         <v>137</v>
       </c>
@@ -15576,7 +15573,7 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="16">
-      <c r="A94" s="35"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
         <v>35</v>
@@ -15592,7 +15589,7 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="16">
-      <c r="A95" s="35"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
         <v>36</v>
@@ -15653,7 +15650,7 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="16">
-      <c r="A96" s="35"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
         <v>37</v>
@@ -15707,7 +15704,7 @@
       <c r="X96" s="3"/>
     </row>
     <row r="97" spans="1:24" ht="16">
-      <c r="A97" s="35"/>
+      <c r="A97" s="30"/>
       <c r="B97" s="4" t="s">
         <v>142</v>
       </c>
@@ -15770,14 +15767,14 @@
       </c>
     </row>
     <row r="98" spans="1:24">
-      <c r="A98" s="35"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="16">
-      <c r="A99" s="35"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
         <v>36</v>
@@ -15838,7 +15835,7 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="16">
-      <c r="A100" s="35"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
         <v>37</v>
@@ -15899,7 +15896,7 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="16">
-      <c r="A101" s="35"/>
+      <c r="A101" s="30"/>
       <c r="B101" s="23" t="s">
         <v>145</v>
       </c>
@@ -15962,14 +15959,14 @@
       </c>
     </row>
     <row r="102" spans="1:24">
-      <c r="A102" s="35"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="16">
-      <c r="A103" s="35"/>
+      <c r="A103" s="30"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
         <v>36</v>
@@ -16030,7 +16027,7 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="16">
-      <c r="A104" s="35"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="s">
         <v>37</v>
@@ -16091,7 +16088,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="16">
-      <c r="A105" s="35"/>
+      <c r="A105" s="30"/>
       <c r="B105" s="23" t="s">
         <v>147</v>
       </c>
@@ -16154,14 +16151,14 @@
       </c>
     </row>
     <row r="106" spans="1:24">
-      <c r="A106" s="35"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="16">
-      <c r="A107" s="35"/>
+      <c r="A107" s="30"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
         <v>36</v>
@@ -16222,7 +16219,7 @@
       </c>
     </row>
     <row r="108" spans="1:24" ht="16">
-      <c r="A108" s="35"/>
+      <c r="A108" s="30"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2" t="s">
         <v>37</v>
@@ -16283,7 +16280,7 @@
       </c>
     </row>
     <row r="109" spans="1:24" ht="16">
-      <c r="A109" s="35"/>
+      <c r="A109" s="30"/>
       <c r="B109" s="23" t="s">
         <v>148</v>
       </c>
@@ -16346,7 +16343,7 @@
       </c>
     </row>
     <row r="110" spans="1:24" ht="16">
-      <c r="A110" s="35"/>
+      <c r="A110" s="30"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="s">
         <v>35</v>
@@ -16356,7 +16353,7 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="16">
-      <c r="A111" s="35"/>
+      <c r="A111" s="30"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
         <v>36</v>
@@ -16417,7 +16414,7 @@
       </c>
     </row>
     <row r="112" spans="1:24" ht="16">
-      <c r="A112" s="35"/>
+      <c r="A112" s="30"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
         <v>37</v>
@@ -16475,7 +16472,7 @@
       </c>
     </row>
     <row r="113" spans="1:24" ht="16">
-      <c r="A113" s="35"/>
+      <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
         <v>152</v>
       </c>
@@ -16538,14 +16535,14 @@
       </c>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="35"/>
+      <c r="A114" s="30"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="16">
-      <c r="A115" s="35"/>
+      <c r="A115" s="30"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
         <v>36</v>
@@ -16606,7 +16603,7 @@
       </c>
     </row>
     <row r="116" spans="1:24" ht="16">
-      <c r="A116" s="35"/>
+      <c r="A116" s="30"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
         <v>37</v>
@@ -16667,7 +16664,7 @@
       </c>
     </row>
     <row r="117" spans="1:24" ht="14">
-      <c r="A117" s="35"/>
+      <c r="A117" s="30"/>
       <c r="B117" s="4" t="s">
         <v>55</v>
       </c>
@@ -16676,29 +16673,29 @@
       </c>
     </row>
     <row r="118" spans="1:24">
-      <c r="A118" s="35"/>
+      <c r="A118" s="30"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:24">
-      <c r="A119" s="35"/>
+      <c r="A119" s="30"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:24">
-      <c r="A120" s="35"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="16">
-      <c r="A123" s="34" t="s">
-        <v>182</v>
+      <c r="A123" s="29" t="s">
+        <v>181</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>56</v>
@@ -16762,7 +16759,7 @@
       </c>
     </row>
     <row r="124" spans="1:24" ht="16">
-      <c r="A124" s="34"/>
+      <c r="A124" s="29"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
         <v>35</v>
@@ -16823,7 +16820,7 @@
       </c>
     </row>
     <row r="125" spans="1:24" ht="16">
-      <c r="A125" s="34"/>
+      <c r="A125" s="29"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
         <v>36</v>
@@ -16848,7 +16845,7 @@
       <c r="X125" s="3"/>
     </row>
     <row r="126" spans="1:24" ht="16">
-      <c r="A126" s="34"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
         <v>37</v>
@@ -16909,7 +16906,7 @@
       </c>
     </row>
     <row r="127" spans="1:24" ht="16">
-      <c r="A127" s="34"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="10" t="s">
         <v>57</v>
       </c>
@@ -16972,14 +16969,14 @@
       </c>
     </row>
     <row r="128" spans="1:24">
-      <c r="A128" s="34"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="16">
-      <c r="A129" s="34"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
         <v>36</v>
@@ -17040,7 +17037,7 @@
       </c>
     </row>
     <row r="130" spans="1:24" ht="16">
-      <c r="A130" s="34"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
         <v>37</v>
@@ -17101,7 +17098,7 @@
       </c>
     </row>
     <row r="131" spans="1:24" ht="16">
-      <c r="A131" s="34"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="10" t="s">
         <v>58</v>
       </c>
@@ -17164,14 +17161,14 @@
       </c>
     </row>
     <row r="132" spans="1:24">
-      <c r="A132" s="34"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="16">
-      <c r="A133" s="34"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
         <v>36</v>
@@ -17232,7 +17229,7 @@
       </c>
     </row>
     <row r="134" spans="1:24" ht="16">
-      <c r="A134" s="34"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
         <v>37</v>
@@ -17293,7 +17290,7 @@
       </c>
     </row>
     <row r="135" spans="1:24" ht="16">
-      <c r="A135" s="34"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="10" t="s">
         <v>59</v>
       </c>
@@ -17356,14 +17353,14 @@
       </c>
     </row>
     <row r="136" spans="1:24">
-      <c r="A136" s="34"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="16">
-      <c r="A137" s="34"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
         <v>36</v>
@@ -17424,7 +17421,7 @@
       </c>
     </row>
     <row r="138" spans="1:24" ht="16">
-      <c r="A138" s="34"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
         <v>37</v>
@@ -17485,7 +17482,7 @@
       </c>
     </row>
     <row r="139" spans="1:24" ht="16">
-      <c r="A139" s="34"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="10" t="s">
         <v>60</v>
       </c>
@@ -17548,14 +17545,14 @@
       </c>
     </row>
     <row r="140" spans="1:24">
-      <c r="A140" s="34"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="16">
-      <c r="A141" s="34"/>
+      <c r="A141" s="29"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6" t="s">
         <v>36</v>
@@ -17616,7 +17613,7 @@
       </c>
     </row>
     <row r="142" spans="1:24" ht="16">
-      <c r="A142" s="34"/>
+      <c r="A142" s="29"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6" t="s">
         <v>37</v>
@@ -17677,7 +17674,7 @@
       </c>
     </row>
     <row r="143" spans="1:24" ht="16">
-      <c r="A143" s="34"/>
+      <c r="A143" s="29"/>
       <c r="B143" s="10" t="s">
         <v>61</v>
       </c>
@@ -17740,14 +17737,14 @@
       </c>
     </row>
     <row r="144" spans="1:24">
-      <c r="A144" s="34"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="16">
-      <c r="A145" s="34"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
         <v>36</v>
@@ -17808,7 +17805,7 @@
       </c>
     </row>
     <row r="146" spans="1:24">
-      <c r="A146" s="34"/>
+      <c r="A146" s="29"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
         <v>37</v>
@@ -17818,7 +17815,7 @@
       </c>
     </row>
     <row r="147" spans="1:24" ht="16">
-      <c r="A147" s="34"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="10" t="s">
         <v>62</v>
       </c>
@@ -17881,14 +17878,14 @@
       </c>
     </row>
     <row r="148" spans="1:24">
-      <c r="A148" s="34"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="16">
-      <c r="A149" s="34"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
         <v>36</v>
@@ -17949,7 +17946,7 @@
       </c>
     </row>
     <row r="150" spans="1:24" ht="16">
-      <c r="A150" s="34"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6" t="s">
         <v>37</v>
@@ -18010,7 +18007,7 @@
       </c>
     </row>
     <row r="151" spans="1:24" ht="16">
-      <c r="A151" s="34"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="10" t="s">
         <v>63</v>
       </c>
@@ -18073,14 +18070,14 @@
       </c>
     </row>
     <row r="152" spans="1:24">
-      <c r="A152" s="34"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="16">
-      <c r="A153" s="34"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
         <v>36</v>
@@ -18141,7 +18138,7 @@
       </c>
     </row>
     <row r="154" spans="1:24" ht="16">
-      <c r="A154" s="34"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6" t="s">
         <v>37</v>
@@ -18202,7 +18199,7 @@
       </c>
     </row>
     <row r="155" spans="1:24" ht="16">
-      <c r="A155" s="34"/>
+      <c r="A155" s="29"/>
       <c r="B155" s="10" t="s">
         <v>64</v>
       </c>
@@ -18265,14 +18262,14 @@
       </c>
     </row>
     <row r="156" spans="1:24">
-      <c r="A156" s="34"/>
+      <c r="A156" s="29"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="16">
-      <c r="A157" s="34"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
         <v>36</v>
@@ -18333,7 +18330,7 @@
       </c>
     </row>
     <row r="158" spans="1:24" ht="16">
-      <c r="A158" s="34"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6" t="s">
         <v>37</v>
@@ -18394,7 +18391,7 @@
       </c>
     </row>
     <row r="159" spans="1:24" ht="16">
-      <c r="A159" s="34"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="10" t="s">
         <v>65</v>
       </c>
@@ -18457,14 +18454,14 @@
       </c>
     </row>
     <row r="160" spans="1:24">
-      <c r="A160" s="34"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="16">
-      <c r="A161" s="34"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6" t="s">
         <v>36</v>
@@ -18525,7 +18522,7 @@
       </c>
     </row>
     <row r="162" spans="1:24" ht="16">
-      <c r="A162" s="34"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6" t="s">
         <v>37</v>
@@ -18586,9 +18583,9 @@
       </c>
     </row>
     <row r="163" spans="1:24" ht="16">
-      <c r="A163" s="34"/>
+      <c r="A163" s="29"/>
       <c r="B163" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>34</v>
@@ -18649,14 +18646,14 @@
       </c>
     </row>
     <row r="164" spans="1:24">
-      <c r="A164" s="34"/>
+      <c r="A164" s="29"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="16">
-      <c r="A165" s="34"/>
+      <c r="A165" s="29"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
         <v>36</v>
@@ -18717,7 +18714,7 @@
       </c>
     </row>
     <row r="166" spans="1:24" ht="16">
-      <c r="A166" s="34"/>
+      <c r="A166" s="29"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6" t="s">
         <v>37</v>
@@ -18778,9 +18775,9 @@
       </c>
     </row>
     <row r="167" spans="1:24" ht="16">
-      <c r="A167" s="34"/>
+      <c r="A167" s="29"/>
       <c r="B167" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>34</v>
@@ -18841,14 +18838,14 @@
       </c>
     </row>
     <row r="168" spans="1:24">
-      <c r="A168" s="34"/>
+      <c r="A168" s="29"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="16">
-      <c r="A169" s="34"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6" t="s">
         <v>36</v>
@@ -18909,7 +18906,7 @@
       </c>
     </row>
     <row r="170" spans="1:24" ht="16">
-      <c r="A170" s="34"/>
+      <c r="A170" s="29"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6" t="s">
         <v>37</v>
@@ -18970,9 +18967,9 @@
       </c>
     </row>
     <row r="171" spans="1:24" ht="16">
-      <c r="A171" s="34"/>
+      <c r="A171" s="29"/>
       <c r="B171" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>34</v>
@@ -19033,14 +19030,14 @@
       </c>
     </row>
     <row r="172" spans="1:24">
-      <c r="A172" s="34"/>
+      <c r="A172" s="29"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="16">
-      <c r="A173" s="34"/>
+      <c r="A173" s="29"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
         <v>36</v>
@@ -19101,7 +19098,7 @@
       </c>
     </row>
     <row r="174" spans="1:24" ht="16">
-      <c r="A174" s="34"/>
+      <c r="A174" s="29"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
         <v>37</v>
@@ -19162,9 +19159,9 @@
       </c>
     </row>
     <row r="175" spans="1:24" ht="16">
-      <c r="A175" s="34"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>34</v>
@@ -19225,7 +19222,7 @@
       </c>
     </row>
     <row r="176" spans="1:24" ht="16">
-      <c r="A176" s="34"/>
+      <c r="A176" s="29"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6" t="s">
         <v>35</v>
@@ -19256,7 +19253,7 @@
       </c>
     </row>
     <row r="177" spans="1:24" ht="16">
-      <c r="A177" s="34"/>
+      <c r="A177" s="29"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6" t="s">
         <v>36</v>
@@ -19317,7 +19314,7 @@
       </c>
     </row>
     <row r="178" spans="1:24" ht="16">
-      <c r="A178" s="34"/>
+      <c r="A178" s="29"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
         <v>37</v>
@@ -19378,9 +19375,9 @@
       </c>
     </row>
     <row r="179" spans="1:24" ht="16">
-      <c r="A179" s="34"/>
+      <c r="A179" s="29"/>
       <c r="B179" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>34</v>
@@ -19441,14 +19438,14 @@
       </c>
     </row>
     <row r="180" spans="1:24">
-      <c r="A180" s="34"/>
+      <c r="A180" s="29"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="16">
-      <c r="A181" s="34"/>
+      <c r="A181" s="29"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6" t="s">
         <v>36</v>
@@ -19509,7 +19506,7 @@
       </c>
     </row>
     <row r="182" spans="1:24" ht="16">
-      <c r="A182" s="34"/>
+      <c r="A182" s="29"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6" t="s">
         <v>37</v>
@@ -19570,9 +19567,9 @@
       </c>
     </row>
     <row r="183" spans="1:24" ht="28">
-      <c r="A183" s="34"/>
+      <c r="A183" s="29"/>
       <c r="B183" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>34</v>
@@ -19633,14 +19630,14 @@
       </c>
     </row>
     <row r="184" spans="1:24">
-      <c r="A184" s="34"/>
+      <c r="A184" s="29"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="16">
-      <c r="A185" s="34"/>
+      <c r="A185" s="29"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6" t="s">
         <v>36</v>
@@ -19701,7 +19698,7 @@
       </c>
     </row>
     <row r="186" spans="1:24" ht="16">
-      <c r="A186" s="34"/>
+      <c r="A186" s="29"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6" t="s">
         <v>37</v>
@@ -19762,9 +19759,9 @@
       </c>
     </row>
     <row r="187" spans="1:24" ht="16">
-      <c r="A187" s="34"/>
+      <c r="A187" s="29"/>
       <c r="B187" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>34</v>
@@ -19825,14 +19822,14 @@
       </c>
     </row>
     <row r="188" spans="1:24">
-      <c r="A188" s="34"/>
+      <c r="A188" s="29"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="16">
-      <c r="A189" s="34"/>
+      <c r="A189" s="29"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6" t="s">
         <v>36</v>
@@ -19893,7 +19890,7 @@
       </c>
     </row>
     <row r="190" spans="1:24" ht="16">
-      <c r="A190" s="34"/>
+      <c r="A190" s="29"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6" t="s">
         <v>37</v>
@@ -19954,249 +19951,249 @@
       </c>
     </row>
     <row r="192" spans="1:24">
-      <c r="A192" s="36" t="s">
+      <c r="A192" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="36"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="36"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="36"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14">
-      <c r="A196" s="36"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="36"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="36"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="36"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14">
-      <c r="A200" s="36"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="36"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="36"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="36"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14">
-      <c r="A204" s="36"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="36"/>
+      <c r="A205" s="31"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="36"/>
+      <c r="A206" s="31"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="36"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14">
-      <c r="A208" s="36"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="36"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="36"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="36"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14">
-      <c r="A212" s="36"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="36"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="36"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="36"/>
+      <c r="A215" s="31"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14">
-      <c r="A216" s="36"/>
+      <c r="A216" s="31"/>
       <c r="B216" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="36"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="36"/>
+      <c r="A218" s="31"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="36"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14">
-      <c r="A220" s="36"/>
+      <c r="A220" s="31"/>
       <c r="B220" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="36"/>
+      <c r="A221" s="31"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="36"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="36"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14">
-      <c r="A224" s="36"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="7" t="s">
         <v>66</v>
       </c>
@@ -20205,28 +20202,28 @@
       </c>
     </row>
     <row r="225" spans="1:24">
-      <c r="A225" s="36"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:24">
-      <c r="A226" s="36"/>
+      <c r="A226" s="31"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:24">
-      <c r="A227" s="36"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:24">
-      <c r="A228" s="36"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="17" t="s">
         <v>67</v>
       </c>
@@ -20235,21 +20232,21 @@
       </c>
     </row>
     <row r="229" spans="1:24">
-      <c r="A229" s="36"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:24">
-      <c r="A230" s="36"/>
+      <c r="A230" s="31"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:24">
-      <c r="A231" s="36"/>
+      <c r="A231" s="31"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5" t="s">
         <v>37</v>
@@ -20257,7 +20254,7 @@
     </row>
     <row r="232" spans="1:24">
       <c r="B232" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D232" s="11">
         <v>66.989999999999995</v>
@@ -20316,16 +20313,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A4:A51"/>
     <mergeCell ref="A123:A190"/>
     <mergeCell ref="A53:A120"/>
     <mergeCell ref="A192:A231"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20341,8 +20338,8 @@
   <dimension ref="A3:F231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="3" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -20367,7 +20364,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -20383,23 +20380,23 @@
         <v>72</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="33"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="33"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="33"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="14">
-      <c r="A8" s="33"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -20417,19 +20414,19 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="33"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="33"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="33"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="14">
-      <c r="A12" s="33"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -20447,19 +20444,19 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="33"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="33"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="33"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="14">
-      <c r="A16" s="33"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -20477,19 +20474,19 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="33"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="33"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="33"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="14">
-      <c r="A20" s="33"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -20507,19 +20504,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="33"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="33"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="33"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="14">
-      <c r="A24" s="33"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="21" t="s">
         <v>80</v>
       </c>
@@ -20537,19 +20534,19 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="33"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="33"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="33"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="14">
-      <c r="A28" s="33"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
@@ -20567,19 +20564,19 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="33"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="33"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="33"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="33"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8" t="s">
         <v>86</v>
       </c>
@@ -20597,19 +20594,19 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="33"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="33"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="33"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="14">
-      <c r="A36" s="33"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -20627,19 +20624,19 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="33"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="33"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="33"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="14">
-      <c r="A40" s="33"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="9" t="s">
         <v>46</v>
       </c>
@@ -20657,19 +20654,19 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="33"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="33"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="33"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="14">
-      <c r="A44" s="33"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
@@ -20687,19 +20684,19 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="33"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="33"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="33"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:6" ht="14">
-      <c r="A48" s="33"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
@@ -20717,19 +20714,19 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="33"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="33"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="33"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="8"/>
     </row>
     <row r="53" spans="1:6" ht="14">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -20749,19 +20746,19 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="35"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="35"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="35"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="14">
-      <c r="A57" s="35"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
@@ -20779,19 +20776,19 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="35"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="35"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="35"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="14">
-      <c r="A61" s="35"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="4" t="s">
         <v>50</v>
       </c>
@@ -20809,19 +20806,19 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="35"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="35"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="35"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="14">
-      <c r="A65" s="35"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
         <v>115</v>
       </c>
@@ -20839,19 +20836,19 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="35"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="35"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="35"/>
+      <c r="A68" s="30"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="14">
-      <c r="A69" s="35"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="23" t="s">
         <v>116</v>
       </c>
@@ -20869,19 +20866,19 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="35"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="35"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="35"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="14">
-      <c r="A73" s="35"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
@@ -20899,19 +20896,19 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="35"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="35"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="35"/>
+      <c r="A76" s="30"/>
       <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="14">
-      <c r="A77" s="35"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="4" t="s">
         <v>52</v>
       </c>
@@ -20929,19 +20926,19 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="35"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="35"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="35"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="14">
-      <c r="A81" s="35"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="4" t="s">
         <v>53</v>
       </c>
@@ -20959,19 +20956,19 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="35"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="35"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="35"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="14">
-      <c r="A85" s="35"/>
+      <c r="A85" s="30"/>
       <c r="B85" s="4" t="s">
         <v>54</v>
       </c>
@@ -20989,19 +20986,19 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="35"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="35"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="35"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="14">
-      <c r="A89" s="35"/>
+      <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
         <v>132</v>
       </c>
@@ -21019,19 +21016,19 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="35"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="35"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="35"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="14">
-      <c r="A93" s="35"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
         <v>137</v>
       </c>
@@ -21049,19 +21046,19 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="35"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="35"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="35"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="14">
-      <c r="A97" s="35"/>
+      <c r="A97" s="30"/>
       <c r="B97" s="4" t="s">
         <v>142</v>
       </c>
@@ -21079,19 +21076,19 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="35"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="35"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="35"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="14">
-      <c r="A101" s="35"/>
+      <c r="A101" s="30"/>
       <c r="B101" s="23" t="s">
         <v>145</v>
       </c>
@@ -21109,19 +21106,19 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="35"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="1"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="35"/>
+      <c r="A103" s="30"/>
       <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="35"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="14">
-      <c r="A105" s="35"/>
+      <c r="A105" s="30"/>
       <c r="B105" s="23" t="s">
         <v>147</v>
       </c>
@@ -21139,19 +21136,19 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="35"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="35"/>
+      <c r="A107" s="30"/>
       <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="35"/>
+      <c r="A108" s="30"/>
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="14">
-      <c r="A109" s="35"/>
+      <c r="A109" s="30"/>
       <c r="B109" s="23" t="s">
         <v>148</v>
       </c>
@@ -21169,19 +21166,19 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="35"/>
+      <c r="A110" s="30"/>
       <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="35"/>
+      <c r="A111" s="30"/>
       <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="35"/>
+      <c r="A112" s="30"/>
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:6" ht="14">
-      <c r="A113" s="35"/>
+      <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
         <v>152</v>
       </c>
@@ -21199,19 +21196,19 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="35"/>
+      <c r="A114" s="30"/>
       <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="35"/>
+      <c r="A115" s="30"/>
       <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="35"/>
+      <c r="A116" s="30"/>
       <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:6" ht="14">
-      <c r="A117" s="35"/>
+      <c r="A117" s="30"/>
       <c r="B117" s="4" t="s">
         <v>55</v>
       </c>
@@ -21229,20 +21226,20 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="35"/>
+      <c r="A118" s="30"/>
       <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="35"/>
+      <c r="A119" s="30"/>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="35"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="1"/>
     </row>
     <row r="123" spans="1:6" ht="14">
-      <c r="A123" s="34" t="s">
-        <v>182</v>
+      <c r="A123" s="29" t="s">
+        <v>181</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>56</v>
@@ -21261,19 +21258,19 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="34"/>
+      <c r="A124" s="29"/>
       <c r="B124" s="6"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="34"/>
+      <c r="A125" s="29"/>
       <c r="B125" s="6"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="34"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="6"/>
     </row>
     <row r="127" spans="1:6" ht="14">
-      <c r="A127" s="34"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="10" t="s">
         <v>57</v>
       </c>
@@ -21291,19 +21288,19 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="34"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="6"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="34"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="6"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="34"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="6"/>
     </row>
     <row r="131" spans="1:6" ht="14">
-      <c r="A131" s="34"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="10" t="s">
         <v>58</v>
       </c>
@@ -21321,19 +21318,19 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="34"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="6"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="34"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="6"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="34"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="6"/>
     </row>
     <row r="135" spans="1:6" ht="14">
-      <c r="A135" s="34"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="10" t="s">
         <v>59</v>
       </c>
@@ -21351,19 +21348,19 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="34"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="6"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="34"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="6"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="34"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="6"/>
     </row>
     <row r="139" spans="1:6" ht="14">
-      <c r="A139" s="34"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="10" t="s">
         <v>60</v>
       </c>
@@ -21381,19 +21378,19 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="34"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="6"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="34"/>
+      <c r="A141" s="29"/>
       <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="34"/>
+      <c r="A142" s="29"/>
       <c r="B142" s="6"/>
     </row>
     <row r="143" spans="1:6" ht="14">
-      <c r="A143" s="34"/>
+      <c r="A143" s="29"/>
       <c r="B143" s="10" t="s">
         <v>61</v>
       </c>
@@ -21411,19 +21408,19 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="34"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="6"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="34"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="6"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="34"/>
+      <c r="A146" s="29"/>
       <c r="B146" s="6"/>
     </row>
     <row r="147" spans="1:6" ht="14">
-      <c r="A147" s="34"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="10" t="s">
         <v>62</v>
       </c>
@@ -21441,24 +21438,24 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="34"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="6"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="34"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="6"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="34"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="6"/>
     </row>
     <row r="151" spans="1:6" ht="14">
-      <c r="A151" s="34"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="D151" s="20">
         <v>2024</v>
@@ -21467,53 +21464,53 @@
         <v>175</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="34"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="6"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="34"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="6"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="34"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="6"/>
     </row>
     <row r="155" spans="1:6" ht="14">
-      <c r="A155" s="34"/>
+      <c r="A155" s="29"/>
       <c r="B155" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D155" s="20">
         <v>2024</v>
       </c>
       <c r="E155" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="34"/>
+      <c r="A156" s="29"/>
       <c r="B156" s="6"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="34"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="6"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="34"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="6"/>
     </row>
     <row r="159" spans="1:6" ht="14">
-      <c r="A159" s="34"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="10" t="s">
         <v>65</v>
       </c>
@@ -21527,55 +21524,55 @@
         <v>114</v>
       </c>
       <c r="F159" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="34"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="6"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="34"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="6"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="34"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="6"/>
     </row>
     <row r="163" spans="1:6" ht="14">
-      <c r="A163" s="34"/>
+      <c r="A163" s="29"/>
       <c r="B163" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" t="s">
         <v>184</v>
-      </c>
-      <c r="C163" t="s">
-        <v>185</v>
       </c>
       <c r="D163" s="20">
         <v>2024</v>
       </c>
       <c r="E163" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F163" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="34"/>
+      <c r="A164" s="29"/>
       <c r="B164" s="6"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="34"/>
+      <c r="A165" s="29"/>
       <c r="B165" s="6"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="34"/>
+      <c r="A166" s="29"/>
       <c r="B166" s="6"/>
     </row>
     <row r="167" spans="1:6" ht="14">
-      <c r="A167" s="34"/>
+      <c r="A167" s="29"/>
       <c r="B167" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C167" s="20" t="s">
         <v>85</v>
@@ -21584,58 +21581,58 @@
         <v>2025</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F167" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="29"/>
+      <c r="B168" s="6"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="29"/>
+      <c r="B169" s="6"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="29"/>
+      <c r="B170" s="6"/>
+    </row>
+    <row r="171" spans="1:6" ht="14">
+      <c r="A171" s="29"/>
+      <c r="B171" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C171" s="20" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="34"/>
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="34"/>
-      <c r="B169" s="6"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="34"/>
-      <c r="B170" s="6"/>
-    </row>
-    <row r="171" spans="1:6" ht="14">
-      <c r="A171" s="34"/>
-      <c r="B171" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>190</v>
       </c>
       <c r="D171" s="20">
         <v>2023</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="34"/>
+      <c r="A172" s="29"/>
       <c r="B172" s="6"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="34"/>
+      <c r="A173" s="29"/>
       <c r="B173" s="6"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="34"/>
+      <c r="A174" s="29"/>
       <c r="B174" s="6"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="34"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C175" s="20" t="s">
         <v>85</v>
@@ -21644,358 +21641,358 @@
         <v>2023</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F175" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="34"/>
+      <c r="A176" s="29"/>
       <c r="B176" s="6"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="34"/>
+      <c r="A177" s="29"/>
       <c r="B177" s="6"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="34"/>
+      <c r="A178" s="29"/>
       <c r="B178" s="6"/>
     </row>
     <row r="179" spans="1:6" ht="14">
-      <c r="A179" s="34"/>
+      <c r="A179" s="29"/>
       <c r="B179" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C179" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>200</v>
       </c>
       <c r="D179" s="20">
         <v>2024</v>
       </c>
       <c r="E179" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F179" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="F179" s="20" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="34"/>
+      <c r="A180" s="29"/>
       <c r="B180" s="6"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="34"/>
+      <c r="A181" s="29"/>
       <c r="B181" s="6"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="34"/>
+      <c r="A182" s="29"/>
       <c r="B182" s="6"/>
     </row>
     <row r="183" spans="1:6" ht="28">
-      <c r="A183" s="34"/>
+      <c r="A183" s="29"/>
       <c r="B183" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="D183" s="20">
         <v>2023</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F183" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="34"/>
+      <c r="A184" s="29"/>
       <c r="B184" s="6"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="34"/>
+      <c r="A185" s="29"/>
       <c r="B185" s="6"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="34"/>
+      <c r="A186" s="29"/>
       <c r="B186" s="6"/>
     </row>
     <row r="187" spans="1:6" ht="14">
-      <c r="A187" s="34"/>
+      <c r="A187" s="29"/>
       <c r="B187" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="D187" s="20">
         <v>2023</v>
       </c>
       <c r="E187" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F187" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="34"/>
+      <c r="A188" s="29"/>
       <c r="B188" s="6"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="34"/>
+      <c r="A189" s="29"/>
       <c r="B189" s="6"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="34"/>
+      <c r="A190" s="29"/>
       <c r="B190" s="6"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="36" t="s">
+      <c r="A192" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D192" s="20">
         <v>2023</v>
       </c>
       <c r="E192" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="36"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="5"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="36"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="5"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="36"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="5"/>
     </row>
     <row r="196" spans="1:6" ht="14">
-      <c r="A196" s="36"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C196" s="20" t="s">
         <v>212</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>213</v>
       </c>
       <c r="D196" s="20">
         <v>2025</v>
       </c>
       <c r="E196" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="36"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="5"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="36"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="5"/>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="36"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="5"/>
     </row>
     <row r="200" spans="1:6" ht="14">
-      <c r="A200" s="36"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C200" s="20" t="s">
         <v>216</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>217</v>
       </c>
       <c r="D200" s="20">
         <v>2025</v>
       </c>
       <c r="E200" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F200" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="36"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="5"/>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="36"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="5"/>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="36"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="5"/>
     </row>
     <row r="204" spans="1:6" ht="14">
-      <c r="A204" s="36"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D204" s="20">
         <v>2025</v>
       </c>
       <c r="E204" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F204" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="36"/>
+      <c r="A205" s="31"/>
       <c r="B205" s="5"/>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="36"/>
+      <c r="A206" s="31"/>
       <c r="B206" s="5"/>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="36"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="5"/>
     </row>
     <row r="208" spans="1:6" ht="14">
-      <c r="A208" s="36"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C208" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D208" s="20">
         <v>2025</v>
       </c>
       <c r="E208" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F208" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="36"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="5"/>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="36"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="5"/>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="36"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="5"/>
     </row>
     <row r="212" spans="1:6" ht="14">
-      <c r="A212" s="36"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C212" t="s">
         <v>227</v>
-      </c>
-      <c r="C212" t="s">
-        <v>228</v>
       </c>
       <c r="D212" s="20">
         <v>2025</v>
       </c>
       <c r="E212" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F212" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="36"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="5"/>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="36"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="5"/>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="36"/>
+      <c r="A215" s="31"/>
       <c r="B215" s="5"/>
     </row>
     <row r="216" spans="1:6" ht="14">
-      <c r="A216" s="36"/>
+      <c r="A216" s="31"/>
       <c r="B216" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C216" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D216" s="20">
         <v>2025</v>
       </c>
       <c r="E216" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F216" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="36"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="5"/>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="36"/>
+      <c r="A218" s="31"/>
       <c r="B218" s="5"/>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="36"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="5"/>
     </row>
     <row r="220" spans="1:6" ht="14">
-      <c r="A220" s="36"/>
+      <c r="A220" s="31"/>
       <c r="B220" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C220" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D220" s="20">
         <v>2025</v>
       </c>
       <c r="E220" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F220" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="36"/>
+      <c r="A221" s="31"/>
       <c r="B221" s="5"/>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="36"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="5"/>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="36"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="5"/>
     </row>
     <row r="224" spans="1:6" ht="14">
-      <c r="A224" s="36"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="7" t="s">
         <v>66</v>
       </c>
@@ -22009,28 +22006,28 @@
         <v>327</v>
       </c>
       <c r="F224" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="36"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="5"/>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="36"/>
+      <c r="A226" s="31"/>
       <c r="B226" s="5"/>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="36"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="5"/>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="36"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D228" s="26">
         <v>2025</v>
@@ -22039,19 +22036,19 @@
         <v>200</v>
       </c>
       <c r="F228" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="36"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="5"/>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="36"/>
+      <c r="A230" s="31"/>
       <c r="B230" s="5"/>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="36"/>
+      <c r="A231" s="31"/>
       <c r="B231" s="5"/>
     </row>
   </sheetData>

--- a/00.xlsx
+++ b/00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mysun/Desktop/ODL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ECDBBD-C606-444E-A22F-70831F63B829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0634A9-3C0F-FB4C-8500-27698F537FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="-13900" windowWidth="25600" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="-13900" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="llama" sheetId="2" r:id="rId1"/>
@@ -1298,6 +1298,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,21 +1327,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1648,9 +1648,9 @@
   </sheetPr>
   <dimension ref="A1:X237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -1663,35 +1663,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="D1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="36" t="s">
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
       <c r="S1" s="14"/>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
     </row>
     <row r="2" spans="1:24" ht="14">
       <c r="D2" s="8" t="s">
@@ -1727,15 +1727,15 @@
       <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33" t="s">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="33"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="18" t="s">
         <v>17</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1883,14 +1883,14 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="28"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16">
-      <c r="A6" s="28"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
         <v>36</v>
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="16">
-      <c r="A7" s="28"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
         <v>37</v>
@@ -2012,7 +2012,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
-      <c r="A8" s="28"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -2075,14 +2075,14 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="28"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16">
-      <c r="A10" s="28"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
         <v>36</v>
@@ -2143,7 +2143,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="16">
-      <c r="A11" s="28"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>37</v>
@@ -2204,7 +2204,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="16">
-      <c r="A12" s="28"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -2267,14 +2267,14 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="28"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16">
-      <c r="A14" s="28"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>36</v>
@@ -2335,7 +2335,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="16">
-      <c r="A15" s="28"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>37</v>
@@ -2396,7 +2396,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="16">
-      <c r="A16" s="28"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -2459,14 +2459,14 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="28"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="16">
-      <c r="A18" s="28"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
         <v>36</v>
@@ -2527,7 +2527,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="16">
-      <c r="A19" s="28"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
         <v>37</v>
@@ -2588,7 +2588,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="16">
-      <c r="A20" s="28"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -2651,14 +2651,14 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="28"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="16">
-      <c r="A22" s="28"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
         <v>36</v>
@@ -2719,7 +2719,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16">
-      <c r="A23" s="28"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
         <v>37</v>
@@ -2780,7 +2780,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="16">
-      <c r="A24" s="28"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="21" t="s">
         <v>80</v>
       </c>
@@ -2843,14 +2843,14 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="28"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="16">
-      <c r="A26" s="28"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
         <v>36</v>
@@ -2911,7 +2911,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="16">
-      <c r="A27" s="28"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
         <v>37</v>
@@ -2972,7 +2972,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="16">
-      <c r="A28" s="28"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
@@ -3035,14 +3035,14 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="28"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="16">
-      <c r="A30" s="28"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
         <v>36</v>
@@ -3103,7 +3103,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="16">
-      <c r="A31" s="28"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
         <v>37</v>
@@ -3164,7 +3164,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="16">
-      <c r="A32" s="28"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="8" t="s">
         <v>86</v>
       </c>
@@ -3227,14 +3227,14 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="28"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="16">
-      <c r="A34" s="28"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
         <v>36</v>
@@ -3295,7 +3295,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="16">
-      <c r="A35" s="28"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>37</v>
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="16">
-      <c r="A36" s="28"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -3419,14 +3419,14 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="28"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="16">
-      <c r="A38" s="28"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
         <v>36</v>
@@ -3487,7 +3487,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="16">
-      <c r="A39" s="28"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
         <v>37</v>
@@ -3548,7 +3548,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="16">
-      <c r="A40" s="28"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="9" t="s">
         <v>46</v>
       </c>
@@ -3611,14 +3611,14 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="28"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="16">
-      <c r="A42" s="28"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
         <v>36</v>
@@ -3679,7 +3679,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="16">
-      <c r="A43" s="28"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
         <v>37</v>
@@ -3740,7 +3740,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="16">
-      <c r="A44" s="28"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
@@ -3803,14 +3803,14 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="28"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="16">
-      <c r="A46" s="28"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
         <v>36</v>
@@ -3871,7 +3871,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="16">
-      <c r="A47" s="28"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
         <v>37</v>
@@ -3932,7 +3932,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="16">
-      <c r="A48" s="28"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
@@ -3995,14 +3995,14 @@
       </c>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="28"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="16">
-      <c r="A50" s="28"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
         <v>36</v>
@@ -4063,7 +4063,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="16">
-      <c r="A51" s="28"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
         <v>37</v>
@@ -4124,7 +4124,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="16">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -4189,14 +4189,14 @@
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="30"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="16">
-      <c r="A55" s="30"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>36</v>
@@ -4257,7 +4257,7 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="16">
-      <c r="A56" s="30"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>37</v>
@@ -4318,7 +4318,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="16">
-      <c r="A57" s="30"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
@@ -4381,14 +4381,14 @@
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="30"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="16">
-      <c r="A59" s="30"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>36</v>
@@ -4449,7 +4449,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="16">
-      <c r="A60" s="30"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>37</v>
@@ -4510,7 +4510,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="16">
-      <c r="A61" s="30"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="4" t="s">
         <v>50</v>
       </c>
@@ -4573,14 +4573,14 @@
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="30"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="16">
-      <c r="A63" s="30"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>36</v>
@@ -4641,7 +4641,7 @@
       </c>
     </row>
     <row r="64" spans="1:24" ht="16">
-      <c r="A64" s="30"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>37</v>
@@ -4702,7 +4702,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="16">
-      <c r="A65" s="30"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="23" t="s">
         <v>115</v>
       </c>
@@ -4765,14 +4765,14 @@
       </c>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="30"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="16">
-      <c r="A67" s="30"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>36</v>
@@ -4833,7 +4833,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="16">
-      <c r="A68" s="30"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>37</v>
@@ -4894,7 +4894,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="16">
-      <c r="A69" s="30"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="23" t="s">
         <v>116</v>
       </c>
@@ -4957,14 +4957,14 @@
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="30"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="16">
-      <c r="A71" s="30"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>36</v>
@@ -5025,7 +5025,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="16">
-      <c r="A72" s="30"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>37</v>
@@ -5086,7 +5086,7 @@
       </c>
     </row>
     <row r="73" spans="1:24" ht="16">
-      <c r="A73" s="30"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
@@ -5149,14 +5149,14 @@
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="30"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="16">
-      <c r="A75" s="30"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>36</v>
@@ -5217,7 +5217,7 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="16">
-      <c r="A76" s="30"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>37</v>
@@ -5278,7 +5278,7 @@
       </c>
     </row>
     <row r="77" spans="1:24" ht="16">
-      <c r="A77" s="30"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="4" t="s">
         <v>52</v>
       </c>
@@ -5341,14 +5341,14 @@
       </c>
     </row>
     <row r="78" spans="1:24">
-      <c r="A78" s="30"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="16">
-      <c r="A79" s="30"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
         <v>36</v>
@@ -5409,7 +5409,7 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="16">
-      <c r="A80" s="30"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>37</v>
@@ -5470,7 +5470,7 @@
       </c>
     </row>
     <row r="81" spans="1:24" ht="16">
-      <c r="A81" s="30"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="4" t="s">
         <v>53</v>
       </c>
@@ -5533,14 +5533,14 @@
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="30"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="16">
-      <c r="A83" s="30"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>36</v>
@@ -5601,7 +5601,7 @@
       </c>
     </row>
     <row r="84" spans="1:24" ht="16">
-      <c r="A84" s="30"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>37</v>
@@ -5662,7 +5662,7 @@
       </c>
     </row>
     <row r="85" spans="1:24" ht="16">
-      <c r="A85" s="30"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="4" t="s">
         <v>54</v>
       </c>
@@ -5725,14 +5725,14 @@
       </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86" s="30"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="16">
-      <c r="A87" s="30"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>36</v>
@@ -5793,7 +5793,7 @@
       </c>
     </row>
     <row r="88" spans="1:24" ht="16">
-      <c r="A88" s="30"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>37</v>
@@ -5854,7 +5854,7 @@
       </c>
     </row>
     <row r="89" spans="1:24" ht="16">
-      <c r="A89" s="30"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="23" t="s">
         <v>132</v>
       </c>
@@ -5917,14 +5917,14 @@
       </c>
     </row>
     <row r="90" spans="1:24">
-      <c r="A90" s="30"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="16">
-      <c r="A91" s="30"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
         <v>36</v>
@@ -5985,7 +5985,7 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="16">
-      <c r="A92" s="30"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>37</v>
@@ -6046,7 +6046,7 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="16">
-      <c r="A93" s="30"/>
+      <c r="A93" s="35"/>
       <c r="B93" s="23" t="s">
         <v>137</v>
       </c>
@@ -6109,14 +6109,14 @@
       </c>
     </row>
     <row r="94" spans="1:24">
-      <c r="A94" s="30"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="16">
-      <c r="A95" s="30"/>
+      <c r="A95" s="35"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
         <v>36</v>
@@ -6177,7 +6177,7 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="16">
-      <c r="A96" s="30"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
         <v>37</v>
@@ -6238,7 +6238,7 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="16">
-      <c r="A97" s="30"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="4" t="s">
         <v>142</v>
       </c>
@@ -6301,14 +6301,14 @@
       </c>
     </row>
     <row r="98" spans="1:24">
-      <c r="A98" s="30"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="16">
-      <c r="A99" s="30"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
         <v>36</v>
@@ -6369,7 +6369,7 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="16">
-      <c r="A100" s="30"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
         <v>37</v>
@@ -6430,7 +6430,7 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="16">
-      <c r="A101" s="30"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="23" t="s">
         <v>145</v>
       </c>
@@ -6493,14 +6493,14 @@
       </c>
     </row>
     <row r="102" spans="1:24">
-      <c r="A102" s="30"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="16">
-      <c r="A103" s="30"/>
+      <c r="A103" s="35"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
         <v>36</v>
@@ -6561,7 +6561,7 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="16">
-      <c r="A104" s="30"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="s">
         <v>37</v>
@@ -6622,7 +6622,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="16">
-      <c r="A105" s="30"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="23" t="s">
         <v>147</v>
       </c>
@@ -6685,14 +6685,14 @@
       </c>
     </row>
     <row r="106" spans="1:24">
-      <c r="A106" s="30"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="16">
-      <c r="A107" s="30"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
         <v>36</v>
@@ -6753,7 +6753,7 @@
       </c>
     </row>
     <row r="108" spans="1:24" ht="16">
-      <c r="A108" s="30"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2" t="s">
         <v>37</v>
@@ -6814,7 +6814,7 @@
       </c>
     </row>
     <row r="109" spans="1:24" ht="16">
-      <c r="A109" s="30"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="23" t="s">
         <v>148</v>
       </c>
@@ -6877,14 +6877,14 @@
       </c>
     </row>
     <row r="110" spans="1:24">
-      <c r="A110" s="30"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="16">
-      <c r="A111" s="30"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
         <v>36</v>
@@ -6945,7 +6945,7 @@
       </c>
     </row>
     <row r="112" spans="1:24" ht="16">
-      <c r="A112" s="30"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
         <v>37</v>
@@ -7006,7 +7006,7 @@
       </c>
     </row>
     <row r="113" spans="1:24" ht="16">
-      <c r="A113" s="30"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="23" t="s">
         <v>152</v>
       </c>
@@ -7069,14 +7069,14 @@
       </c>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="30"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="16">
-      <c r="A115" s="30"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
         <v>36</v>
@@ -7137,7 +7137,7 @@
       </c>
     </row>
     <row r="116" spans="1:24" ht="16">
-      <c r="A116" s="30"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
         <v>37</v>
@@ -7198,7 +7198,7 @@
       </c>
     </row>
     <row r="117" spans="1:24" ht="14">
-      <c r="A117" s="30"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="4" t="s">
         <v>55</v>
       </c>
@@ -7207,28 +7207,28 @@
       </c>
     </row>
     <row r="118" spans="1:24">
-      <c r="A118" s="30"/>
+      <c r="A118" s="35"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:24">
-      <c r="A119" s="30"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:24">
-      <c r="A120" s="30"/>
+      <c r="A120" s="35"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="16">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="34" t="s">
         <v>181</v>
       </c>
       <c r="B123" s="10" t="s">
@@ -7293,14 +7293,14 @@
       </c>
     </row>
     <row r="124" spans="1:24">
-      <c r="A124" s="29"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="16">
-      <c r="A125" s="29"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
         <v>36</v>
@@ -7361,7 +7361,7 @@
       </c>
     </row>
     <row r="126" spans="1:24" ht="16">
-      <c r="A126" s="29"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
         <v>37</v>
@@ -7422,7 +7422,7 @@
       </c>
     </row>
     <row r="127" spans="1:24" ht="16">
-      <c r="A127" s="29"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="10" t="s">
         <v>57</v>
       </c>
@@ -7485,14 +7485,14 @@
       </c>
     </row>
     <row r="128" spans="1:24">
-      <c r="A128" s="29"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="16">
-      <c r="A129" s="29"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
         <v>36</v>
@@ -7553,7 +7553,7 @@
       </c>
     </row>
     <row r="130" spans="1:24" ht="16">
-      <c r="A130" s="29"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
         <v>37</v>
@@ -7614,7 +7614,7 @@
       </c>
     </row>
     <row r="131" spans="1:24" ht="16">
-      <c r="A131" s="29"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="10" t="s">
         <v>58</v>
       </c>
@@ -7677,14 +7677,14 @@
       </c>
     </row>
     <row r="132" spans="1:24">
-      <c r="A132" s="29"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="16">
-      <c r="A133" s="29"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
         <v>36</v>
@@ -7745,7 +7745,7 @@
       </c>
     </row>
     <row r="134" spans="1:24" ht="16">
-      <c r="A134" s="29"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
         <v>37</v>
@@ -7806,7 +7806,7 @@
       </c>
     </row>
     <row r="135" spans="1:24" ht="16">
-      <c r="A135" s="29"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="10" t="s">
         <v>59</v>
       </c>
@@ -7869,14 +7869,14 @@
       </c>
     </row>
     <row r="136" spans="1:24">
-      <c r="A136" s="29"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="16">
-      <c r="A137" s="29"/>
+      <c r="A137" s="34"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
         <v>36</v>
@@ -7937,7 +7937,7 @@
       </c>
     </row>
     <row r="138" spans="1:24" ht="16">
-      <c r="A138" s="29"/>
+      <c r="A138" s="34"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
         <v>37</v>
@@ -7998,7 +7998,7 @@
       </c>
     </row>
     <row r="139" spans="1:24" ht="16">
-      <c r="A139" s="29"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="10" t="s">
         <v>60</v>
       </c>
@@ -8061,14 +8061,14 @@
       </c>
     </row>
     <row r="140" spans="1:24">
-      <c r="A140" s="29"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="16">
-      <c r="A141" s="29"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6" t="s">
         <v>36</v>
@@ -8129,7 +8129,7 @@
       </c>
     </row>
     <row r="142" spans="1:24" ht="16">
-      <c r="A142" s="29"/>
+      <c r="A142" s="34"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6" t="s">
         <v>37</v>
@@ -8190,7 +8190,7 @@
       </c>
     </row>
     <row r="143" spans="1:24" ht="16">
-      <c r="A143" s="29"/>
+      <c r="A143" s="34"/>
       <c r="B143" s="10" t="s">
         <v>61</v>
       </c>
@@ -8253,14 +8253,14 @@
       </c>
     </row>
     <row r="144" spans="1:24">
-      <c r="A144" s="29"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="16">
-      <c r="A145" s="29"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
         <v>36</v>
@@ -8321,7 +8321,7 @@
       </c>
     </row>
     <row r="146" spans="1:24" ht="16">
-      <c r="A146" s="29"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
         <v>37</v>
@@ -8382,7 +8382,7 @@
       </c>
     </row>
     <row r="147" spans="1:24" ht="16">
-      <c r="A147" s="29"/>
+      <c r="A147" s="34"/>
       <c r="B147" s="10" t="s">
         <v>62</v>
       </c>
@@ -8445,14 +8445,14 @@
       </c>
     </row>
     <row r="148" spans="1:24">
-      <c r="A148" s="29"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="16">
-      <c r="A149" s="29"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
         <v>36</v>
@@ -8513,7 +8513,7 @@
       </c>
     </row>
     <row r="150" spans="1:24" ht="16">
-      <c r="A150" s="29"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6" t="s">
         <v>37</v>
@@ -8574,7 +8574,7 @@
       </c>
     </row>
     <row r="151" spans="1:24" ht="16">
-      <c r="A151" s="29"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="10" t="s">
         <v>63</v>
       </c>
@@ -8637,14 +8637,14 @@
       </c>
     </row>
     <row r="152" spans="1:24">
-      <c r="A152" s="29"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="16">
-      <c r="A153" s="29"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
         <v>36</v>
@@ -8705,7 +8705,7 @@
       </c>
     </row>
     <row r="154" spans="1:24" ht="16">
-      <c r="A154" s="29"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6" t="s">
         <v>37</v>
@@ -8766,7 +8766,7 @@
       </c>
     </row>
     <row r="155" spans="1:24" ht="16">
-      <c r="A155" s="29"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="10" t="s">
         <v>64</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
     </row>
     <row r="156" spans="1:24" ht="16">
-      <c r="A156" s="29"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6" t="s">
         <v>35</v>
@@ -8890,7 +8890,7 @@
       </c>
     </row>
     <row r="157" spans="1:24" ht="16">
-      <c r="A157" s="29"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
         <v>36</v>
@@ -8951,7 +8951,7 @@
       </c>
     </row>
     <row r="158" spans="1:24" ht="16">
-      <c r="A158" s="29"/>
+      <c r="A158" s="34"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6" t="s">
         <v>37</v>
@@ -8976,7 +8976,7 @@
       <c r="X158" s="3"/>
     </row>
     <row r="159" spans="1:24" ht="16">
-      <c r="A159" s="29"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="10" t="s">
         <v>65</v>
       </c>
@@ -9039,14 +9039,14 @@
       </c>
     </row>
     <row r="160" spans="1:24">
-      <c r="A160" s="29"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="16">
-      <c r="A161" s="29"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6" t="s">
         <v>36</v>
@@ -9107,7 +9107,7 @@
       </c>
     </row>
     <row r="162" spans="1:24" ht="16">
-      <c r="A162" s="29"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6" t="s">
         <v>37</v>
@@ -9168,7 +9168,7 @@
       </c>
     </row>
     <row r="163" spans="1:24" ht="16">
-      <c r="A163" s="29"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="24" t="s">
         <v>183</v>
       </c>
@@ -9231,14 +9231,14 @@
       </c>
     </row>
     <row r="164" spans="1:24">
-      <c r="A164" s="29"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="16">
-      <c r="A165" s="29"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
         <v>36</v>
@@ -9299,7 +9299,7 @@
       </c>
     </row>
     <row r="166" spans="1:24" ht="16">
-      <c r="A166" s="29"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6" t="s">
         <v>37</v>
@@ -9360,7 +9360,7 @@
       </c>
     </row>
     <row r="167" spans="1:24" ht="16">
-      <c r="A167" s="29"/>
+      <c r="A167" s="34"/>
       <c r="B167" s="24" t="s">
         <v>187</v>
       </c>
@@ -9423,14 +9423,14 @@
       </c>
     </row>
     <row r="168" spans="1:24">
-      <c r="A168" s="29"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="16">
-      <c r="A169" s="29"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6" t="s">
         <v>36</v>
@@ -9491,7 +9491,7 @@
       </c>
     </row>
     <row r="170" spans="1:24" ht="16">
-      <c r="A170" s="29"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6" t="s">
         <v>37</v>
@@ -9552,7 +9552,7 @@
       </c>
     </row>
     <row r="171" spans="1:24" ht="16">
-      <c r="A171" s="29"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="24" t="s">
         <v>191</v>
       </c>
@@ -9615,14 +9615,14 @@
       </c>
     </row>
     <row r="172" spans="1:24">
-      <c r="A172" s="29"/>
+      <c r="A172" s="34"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="16">
-      <c r="A173" s="29"/>
+      <c r="A173" s="34"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
         <v>36</v>
@@ -9683,7 +9683,7 @@
       </c>
     </row>
     <row r="174" spans="1:24" ht="16">
-      <c r="A174" s="29"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
         <v>37</v>
@@ -9744,7 +9744,7 @@
       </c>
     </row>
     <row r="175" spans="1:24" ht="16">
-      <c r="A175" s="29"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="6" t="s">
         <v>194</v>
       </c>
@@ -9807,14 +9807,14 @@
       </c>
     </row>
     <row r="176" spans="1:24">
-      <c r="A176" s="29"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="16">
-      <c r="A177" s="29"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6" t="s">
         <v>36</v>
@@ -9875,7 +9875,7 @@
       </c>
     </row>
     <row r="178" spans="1:24" ht="16">
-      <c r="A178" s="29"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
         <v>37</v>
@@ -9936,7 +9936,7 @@
       </c>
     </row>
     <row r="179" spans="1:24" ht="16">
-      <c r="A179" s="29"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="24" t="s">
         <v>198</v>
       </c>
@@ -9999,14 +9999,14 @@
       </c>
     </row>
     <row r="180" spans="1:24">
-      <c r="A180" s="29"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="16">
-      <c r="A181" s="29"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6" t="s">
         <v>36</v>
@@ -10067,7 +10067,7 @@
       </c>
     </row>
     <row r="182" spans="1:24" ht="16">
-      <c r="A182" s="29"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6" t="s">
         <v>37</v>
@@ -10128,7 +10128,7 @@
       </c>
     </row>
     <row r="183" spans="1:24" ht="28">
-      <c r="A183" s="29"/>
+      <c r="A183" s="34"/>
       <c r="B183" s="24" t="s">
         <v>201</v>
       </c>
@@ -10191,14 +10191,14 @@
       </c>
     </row>
     <row r="184" spans="1:24">
-      <c r="A184" s="29"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="16">
-      <c r="A185" s="29"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6" t="s">
         <v>36</v>
@@ -10259,7 +10259,7 @@
       </c>
     </row>
     <row r="186" spans="1:24" ht="16">
-      <c r="A186" s="29"/>
+      <c r="A186" s="34"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6" t="s">
         <v>37</v>
@@ -10320,7 +10320,7 @@
       </c>
     </row>
     <row r="187" spans="1:24" ht="16">
-      <c r="A187" s="29"/>
+      <c r="A187" s="34"/>
       <c r="B187" s="24" t="s">
         <v>204</v>
       </c>
@@ -10383,7 +10383,7 @@
       </c>
     </row>
     <row r="188" spans="1:24" ht="16">
-      <c r="A188" s="29"/>
+      <c r="A188" s="34"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6" t="s">
         <v>35</v>
@@ -10444,7 +10444,7 @@
       </c>
     </row>
     <row r="189" spans="1:24" ht="16">
-      <c r="A189" s="29"/>
+      <c r="A189" s="34"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6" t="s">
         <v>36</v>
@@ -10505,14 +10505,14 @@
       </c>
     </row>
     <row r="190" spans="1:24">
-      <c r="A190" s="29"/>
+      <c r="A190" s="34"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:24">
-      <c r="A192" s="31" t="s">
+      <c r="A192" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="5" t="s">
@@ -10523,28 +10523,28 @@
       </c>
     </row>
     <row r="193" spans="1:24">
-      <c r="A193" s="31"/>
+      <c r="A193" s="36"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:24">
-      <c r="A194" s="31"/>
+      <c r="A194" s="36"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:24">
-      <c r="A195" s="31"/>
+      <c r="A195" s="36"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="14">
-      <c r="A196" s="31"/>
+      <c r="A196" s="36"/>
       <c r="B196" s="25" t="s">
         <v>211</v>
       </c>
@@ -10553,28 +10553,28 @@
       </c>
     </row>
     <row r="197" spans="1:24">
-      <c r="A197" s="31"/>
+      <c r="A197" s="36"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:24">
-      <c r="A198" s="31"/>
+      <c r="A198" s="36"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:24">
-      <c r="A199" s="31"/>
+      <c r="A199" s="36"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="14">
-      <c r="A200" s="31"/>
+      <c r="A200" s="36"/>
       <c r="B200" s="25" t="s">
         <v>215</v>
       </c>
@@ -10583,28 +10583,28 @@
       </c>
     </row>
     <row r="201" spans="1:24">
-      <c r="A201" s="31"/>
+      <c r="A201" s="36"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:24">
-      <c r="A202" s="31"/>
+      <c r="A202" s="36"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:24">
-      <c r="A203" s="31"/>
+      <c r="A203" s="36"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="14">
-      <c r="A204" s="31"/>
+      <c r="A204" s="36"/>
       <c r="B204" s="25" t="s">
         <v>219</v>
       </c>
@@ -10613,28 +10613,28 @@
       </c>
     </row>
     <row r="205" spans="1:24">
-      <c r="A205" s="31"/>
+      <c r="A205" s="36"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:24">
-      <c r="A206" s="31"/>
+      <c r="A206" s="36"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:24">
-      <c r="A207" s="31"/>
+      <c r="A207" s="36"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="16">
-      <c r="A208" s="31"/>
+      <c r="A208" s="36"/>
       <c r="B208" s="25" t="s">
         <v>223</v>
       </c>
@@ -10697,14 +10697,14 @@
       </c>
     </row>
     <row r="209" spans="1:24">
-      <c r="A209" s="31"/>
+      <c r="A209" s="36"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="16">
-      <c r="A210" s="31"/>
+      <c r="A210" s="36"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5" t="s">
         <v>36</v>
@@ -10765,7 +10765,7 @@
       </c>
     </row>
     <row r="211" spans="1:24" ht="16">
-      <c r="A211" s="31"/>
+      <c r="A211" s="36"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5" t="s">
         <v>37</v>
@@ -10826,7 +10826,7 @@
       </c>
     </row>
     <row r="212" spans="1:24" ht="14">
-      <c r="A212" s="31"/>
+      <c r="A212" s="36"/>
       <c r="B212" s="25" t="s">
         <v>226</v>
       </c>
@@ -10835,28 +10835,28 @@
       </c>
     </row>
     <row r="213" spans="1:24">
-      <c r="A213" s="31"/>
+      <c r="A213" s="36"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:24">
-      <c r="A214" s="31"/>
+      <c r="A214" s="36"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:24">
-      <c r="A215" s="31"/>
+      <c r="A215" s="36"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="14">
-      <c r="A216" s="31"/>
+      <c r="A216" s="36"/>
       <c r="B216" s="25" t="s">
         <v>231</v>
       </c>
@@ -10865,28 +10865,28 @@
       </c>
     </row>
     <row r="217" spans="1:24">
-      <c r="A217" s="31"/>
+      <c r="A217" s="36"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:24">
-      <c r="A218" s="31"/>
+      <c r="A218" s="36"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:24">
-      <c r="A219" s="31"/>
+      <c r="A219" s="36"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="14">
-      <c r="A220" s="31"/>
+      <c r="A220" s="36"/>
       <c r="B220" s="25" t="s">
         <v>235</v>
       </c>
@@ -10895,28 +10895,28 @@
       </c>
     </row>
     <row r="221" spans="1:24">
-      <c r="A221" s="31"/>
+      <c r="A221" s="36"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:24">
-      <c r="A222" s="31"/>
+      <c r="A222" s="36"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:24">
-      <c r="A223" s="31"/>
+      <c r="A223" s="36"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:24" ht="14">
-      <c r="A224" s="31"/>
+      <c r="A224" s="36"/>
       <c r="B224" s="7" t="s">
         <v>66</v>
       </c>
@@ -10925,28 +10925,28 @@
       </c>
     </row>
     <row r="225" spans="1:24">
-      <c r="A225" s="31"/>
+      <c r="A225" s="36"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:24">
-      <c r="A226" s="31"/>
+      <c r="A226" s="36"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:24">
-      <c r="A227" s="31"/>
+      <c r="A227" s="36"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:24">
-      <c r="A228" s="31"/>
+      <c r="A228" s="36"/>
       <c r="B228" s="17" t="s">
         <v>67</v>
       </c>
@@ -10955,21 +10955,21 @@
       </c>
     </row>
     <row r="229" spans="1:24">
-      <c r="A229" s="31"/>
+      <c r="A229" s="36"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:24">
-      <c r="A230" s="31"/>
+      <c r="A230" s="36"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:24">
-      <c r="A231" s="31"/>
+      <c r="A231" s="36"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5" t="s">
         <v>37</v>
@@ -11078,16 +11078,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:A51"/>
+    <mergeCell ref="A123:A190"/>
+    <mergeCell ref="A53:A120"/>
+    <mergeCell ref="A192:A231"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:A51"/>
-    <mergeCell ref="A123:A190"/>
-    <mergeCell ref="A53:A120"/>
-    <mergeCell ref="A192:A231"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11117,35 +11117,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="D1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="36" t="s">
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
       <c r="S1" s="14"/>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
     </row>
     <row r="2" spans="1:24" ht="14">
       <c r="D2" s="8" t="s">
@@ -11181,15 +11181,15 @@
       <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33" t="s">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="33"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="18" t="s">
         <v>17</v>
       </c>
@@ -11272,7 +11272,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -11337,7 +11337,7 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="28"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>35</v>
@@ -11345,7 +11345,7 @@
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:24" ht="16">
-      <c r="A6" s="28"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
         <v>36</v>
@@ -11406,7 +11406,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="16">
-      <c r="A7" s="28"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
         <v>37</v>
@@ -11467,7 +11467,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
-      <c r="A8" s="28"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -11530,14 +11530,14 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="28"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16">
-      <c r="A10" s="28"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
         <v>36</v>
@@ -11598,7 +11598,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="16">
-      <c r="A11" s="28"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>37</v>
@@ -11659,7 +11659,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="16">
-      <c r="A12" s="28"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -11722,14 +11722,14 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="28"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16">
-      <c r="A14" s="28"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>36</v>
@@ -11790,7 +11790,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="16">
-      <c r="A15" s="28"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>37</v>
@@ -11851,7 +11851,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="16">
-      <c r="A16" s="28"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -11914,7 +11914,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="16">
-      <c r="A17" s="28"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
         <v>35</v>
@@ -11975,7 +11975,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="16">
-      <c r="A18" s="28"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
         <v>36</v>
@@ -12036,14 +12036,14 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="28"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="16">
-      <c r="A20" s="28"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -12106,14 +12106,14 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="28"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="16">
-      <c r="A22" s="28"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
         <v>36</v>
@@ -12174,7 +12174,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16">
-      <c r="A23" s="28"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
         <v>37</v>
@@ -12235,7 +12235,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="16">
-      <c r="A24" s="28"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="21" t="s">
         <v>80</v>
       </c>
@@ -12298,14 +12298,14 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="28"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="16">
-      <c r="A26" s="28"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
         <v>36</v>
@@ -12366,7 +12366,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="16">
-      <c r="A27" s="28"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
         <v>37</v>
@@ -12427,7 +12427,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="16">
-      <c r="A28" s="28"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
@@ -12490,14 +12490,14 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="28"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="16">
-      <c r="A30" s="28"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
         <v>36</v>
@@ -12558,7 +12558,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="16">
-      <c r="A31" s="28"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
         <v>37</v>
@@ -12619,7 +12619,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="16">
-      <c r="A32" s="28"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="8" t="s">
         <v>86</v>
       </c>
@@ -12682,14 +12682,14 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="28"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="16">
-      <c r="A34" s="28"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
         <v>36</v>
@@ -12750,7 +12750,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="16">
-      <c r="A35" s="28"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>37</v>
@@ -12811,7 +12811,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="16">
-      <c r="A36" s="28"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -12874,14 +12874,14 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="28"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="16">
-      <c r="A38" s="28"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
         <v>36</v>
@@ -12942,7 +12942,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="16">
-      <c r="A39" s="28"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
         <v>37</v>
@@ -13003,7 +13003,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="16">
-      <c r="A40" s="28"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="9" t="s">
         <v>46</v>
       </c>
@@ -13066,14 +13066,14 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="28"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="16">
-      <c r="A42" s="28"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
         <v>36</v>
@@ -13134,7 +13134,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="16">
-      <c r="A43" s="28"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
         <v>37</v>
@@ -13195,7 +13195,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="16">
-      <c r="A44" s="28"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
@@ -13258,14 +13258,14 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="28"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="16">
-      <c r="A46" s="28"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
         <v>36</v>
@@ -13326,7 +13326,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="16">
-      <c r="A47" s="28"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
         <v>37</v>
@@ -13387,7 +13387,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="16">
-      <c r="A48" s="28"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
@@ -13450,7 +13450,7 @@
       </c>
     </row>
     <row r="49" spans="1:24" ht="16">
-      <c r="A49" s="28"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
         <v>35</v>
@@ -13466,7 +13466,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="16">
-      <c r="A50" s="28"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
         <v>36</v>
@@ -13527,7 +13527,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="16">
-      <c r="A51" s="28"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
         <v>37</v>
@@ -13588,7 +13588,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="16">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -13653,14 +13653,14 @@
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="30"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="16">
-      <c r="A55" s="30"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>36</v>
@@ -13721,7 +13721,7 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="16">
-      <c r="A56" s="30"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>37</v>
@@ -13782,7 +13782,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="16">
-      <c r="A57" s="30"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
@@ -13845,14 +13845,14 @@
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="30"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="16">
-      <c r="A59" s="30"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>36</v>
@@ -13913,7 +13913,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="16">
-      <c r="A60" s="30"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>37</v>
@@ -13974,7 +13974,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="16">
-      <c r="A61" s="30"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="4" t="s">
         <v>50</v>
       </c>
@@ -14037,14 +14037,14 @@
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="30"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="16">
-      <c r="A63" s="30"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>36</v>
@@ -14105,7 +14105,7 @@
       </c>
     </row>
     <row r="64" spans="1:24" ht="16">
-      <c r="A64" s="30"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>37</v>
@@ -14166,7 +14166,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="16">
-      <c r="A65" s="30"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="23" t="s">
         <v>115</v>
       </c>
@@ -14229,14 +14229,14 @@
       </c>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="30"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="16">
-      <c r="A67" s="30"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>36</v>
@@ -14297,7 +14297,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="16">
-      <c r="A68" s="30"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>37</v>
@@ -14358,7 +14358,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="16">
-      <c r="A69" s="30"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="23" t="s">
         <v>116</v>
       </c>
@@ -14421,14 +14421,14 @@
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="30"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="16">
-      <c r="A71" s="30"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>36</v>
@@ -14489,7 +14489,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="16">
-      <c r="A72" s="30"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>37</v>
@@ -14550,7 +14550,7 @@
       </c>
     </row>
     <row r="73" spans="1:24" ht="16">
-      <c r="A73" s="30"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
@@ -14613,14 +14613,14 @@
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="30"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="16">
-      <c r="A75" s="30"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>36</v>
@@ -14681,7 +14681,7 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="16">
-      <c r="A76" s="30"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>37</v>
@@ -14742,7 +14742,7 @@
       </c>
     </row>
     <row r="77" spans="1:24" ht="16">
-      <c r="A77" s="30"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="4" t="s">
         <v>52</v>
       </c>
@@ -14805,14 +14805,14 @@
       </c>
     </row>
     <row r="78" spans="1:24">
-      <c r="A78" s="30"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="16">
-      <c r="A79" s="30"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
         <v>36</v>
@@ -14873,7 +14873,7 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="16">
-      <c r="A80" s="30"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>37</v>
@@ -14934,7 +14934,7 @@
       </c>
     </row>
     <row r="81" spans="1:24" ht="16">
-      <c r="A81" s="30"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="4" t="s">
         <v>53</v>
       </c>
@@ -14997,14 +14997,14 @@
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="30"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="16">
-      <c r="A83" s="30"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>36</v>
@@ -15065,7 +15065,7 @@
       </c>
     </row>
     <row r="84" spans="1:24" ht="16">
-      <c r="A84" s="30"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>37</v>
@@ -15126,7 +15126,7 @@
       </c>
     </row>
     <row r="85" spans="1:24" ht="16">
-      <c r="A85" s="30"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="4" t="s">
         <v>54</v>
       </c>
@@ -15189,14 +15189,14 @@
       </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86" s="30"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="16">
-      <c r="A87" s="30"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>36</v>
@@ -15257,7 +15257,7 @@
       </c>
     </row>
     <row r="88" spans="1:24" ht="16">
-      <c r="A88" s="30"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>37</v>
@@ -15318,7 +15318,7 @@
       </c>
     </row>
     <row r="89" spans="1:24" ht="16">
-      <c r="A89" s="30"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="23" t="s">
         <v>132</v>
       </c>
@@ -15381,14 +15381,14 @@
       </c>
     </row>
     <row r="90" spans="1:24">
-      <c r="A90" s="30"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="16">
-      <c r="A91" s="30"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
         <v>36</v>
@@ -15449,7 +15449,7 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="16">
-      <c r="A92" s="30"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>37</v>
@@ -15510,7 +15510,7 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="16">
-      <c r="A93" s="30"/>
+      <c r="A93" s="35"/>
       <c r="B93" s="23" t="s">
         <v>137</v>
       </c>
@@ -15573,7 +15573,7 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="16">
-      <c r="A94" s="30"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
         <v>35</v>
@@ -15589,7 +15589,7 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="16">
-      <c r="A95" s="30"/>
+      <c r="A95" s="35"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
         <v>36</v>
@@ -15650,7 +15650,7 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="16">
-      <c r="A96" s="30"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
         <v>37</v>
@@ -15704,7 +15704,7 @@
       <c r="X96" s="3"/>
     </row>
     <row r="97" spans="1:24" ht="16">
-      <c r="A97" s="30"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="4" t="s">
         <v>142</v>
       </c>
@@ -15767,14 +15767,14 @@
       </c>
     </row>
     <row r="98" spans="1:24">
-      <c r="A98" s="30"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="16">
-      <c r="A99" s="30"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
         <v>36</v>
@@ -15835,7 +15835,7 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="16">
-      <c r="A100" s="30"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
         <v>37</v>
@@ -15896,7 +15896,7 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="16">
-      <c r="A101" s="30"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="23" t="s">
         <v>145</v>
       </c>
@@ -15959,14 +15959,14 @@
       </c>
     </row>
     <row r="102" spans="1:24">
-      <c r="A102" s="30"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="16">
-      <c r="A103" s="30"/>
+      <c r="A103" s="35"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
         <v>36</v>
@@ -16027,7 +16027,7 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="16">
-      <c r="A104" s="30"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="s">
         <v>37</v>
@@ -16088,7 +16088,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="16">
-      <c r="A105" s="30"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="23" t="s">
         <v>147</v>
       </c>
@@ -16151,14 +16151,14 @@
       </c>
     </row>
     <row r="106" spans="1:24">
-      <c r="A106" s="30"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="16">
-      <c r="A107" s="30"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
         <v>36</v>
@@ -16219,7 +16219,7 @@
       </c>
     </row>
     <row r="108" spans="1:24" ht="16">
-      <c r="A108" s="30"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2" t="s">
         <v>37</v>
@@ -16280,7 +16280,7 @@
       </c>
     </row>
     <row r="109" spans="1:24" ht="16">
-      <c r="A109" s="30"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="23" t="s">
         <v>148</v>
       </c>
@@ -16343,7 +16343,7 @@
       </c>
     </row>
     <row r="110" spans="1:24" ht="16">
-      <c r="A110" s="30"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="s">
         <v>35</v>
@@ -16353,7 +16353,7 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="16">
-      <c r="A111" s="30"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
         <v>36</v>
@@ -16414,7 +16414,7 @@
       </c>
     </row>
     <row r="112" spans="1:24" ht="16">
-      <c r="A112" s="30"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
         <v>37</v>
@@ -16472,7 +16472,7 @@
       </c>
     </row>
     <row r="113" spans="1:24" ht="16">
-      <c r="A113" s="30"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="23" t="s">
         <v>152</v>
       </c>
@@ -16535,14 +16535,14 @@
       </c>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="30"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="16">
-      <c r="A115" s="30"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
         <v>36</v>
@@ -16603,7 +16603,7 @@
       </c>
     </row>
     <row r="116" spans="1:24" ht="16">
-      <c r="A116" s="30"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
         <v>37</v>
@@ -16664,7 +16664,7 @@
       </c>
     </row>
     <row r="117" spans="1:24" ht="14">
-      <c r="A117" s="30"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="4" t="s">
         <v>55</v>
       </c>
@@ -16673,28 +16673,28 @@
       </c>
     </row>
     <row r="118" spans="1:24">
-      <c r="A118" s="30"/>
+      <c r="A118" s="35"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:24">
-      <c r="A119" s="30"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:24">
-      <c r="A120" s="30"/>
+      <c r="A120" s="35"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="16">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="34" t="s">
         <v>181</v>
       </c>
       <c r="B123" s="10" t="s">
@@ -16759,7 +16759,7 @@
       </c>
     </row>
     <row r="124" spans="1:24" ht="16">
-      <c r="A124" s="29"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
         <v>35</v>
@@ -16820,7 +16820,7 @@
       </c>
     </row>
     <row r="125" spans="1:24" ht="16">
-      <c r="A125" s="29"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
         <v>36</v>
@@ -16845,7 +16845,7 @@
       <c r="X125" s="3"/>
     </row>
     <row r="126" spans="1:24" ht="16">
-      <c r="A126" s="29"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
         <v>37</v>
@@ -16906,7 +16906,7 @@
       </c>
     </row>
     <row r="127" spans="1:24" ht="16">
-      <c r="A127" s="29"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="10" t="s">
         <v>57</v>
       </c>
@@ -16969,14 +16969,14 @@
       </c>
     </row>
     <row r="128" spans="1:24">
-      <c r="A128" s="29"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="16">
-      <c r="A129" s="29"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
         <v>36</v>
@@ -17037,7 +17037,7 @@
       </c>
     </row>
     <row r="130" spans="1:24" ht="16">
-      <c r="A130" s="29"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
         <v>37</v>
@@ -17098,7 +17098,7 @@
       </c>
     </row>
     <row r="131" spans="1:24" ht="16">
-      <c r="A131" s="29"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="10" t="s">
         <v>58</v>
       </c>
@@ -17161,14 +17161,14 @@
       </c>
     </row>
     <row r="132" spans="1:24">
-      <c r="A132" s="29"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="16">
-      <c r="A133" s="29"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
         <v>36</v>
@@ -17229,7 +17229,7 @@
       </c>
     </row>
     <row r="134" spans="1:24" ht="16">
-      <c r="A134" s="29"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
         <v>37</v>
@@ -17290,7 +17290,7 @@
       </c>
     </row>
     <row r="135" spans="1:24" ht="16">
-      <c r="A135" s="29"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="10" t="s">
         <v>59</v>
       </c>
@@ -17353,14 +17353,14 @@
       </c>
     </row>
     <row r="136" spans="1:24">
-      <c r="A136" s="29"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="16">
-      <c r="A137" s="29"/>
+      <c r="A137" s="34"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
         <v>36</v>
@@ -17421,7 +17421,7 @@
       </c>
     </row>
     <row r="138" spans="1:24" ht="16">
-      <c r="A138" s="29"/>
+      <c r="A138" s="34"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
         <v>37</v>
@@ -17482,7 +17482,7 @@
       </c>
     </row>
     <row r="139" spans="1:24" ht="16">
-      <c r="A139" s="29"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="10" t="s">
         <v>60</v>
       </c>
@@ -17545,14 +17545,14 @@
       </c>
     </row>
     <row r="140" spans="1:24">
-      <c r="A140" s="29"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="16">
-      <c r="A141" s="29"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6" t="s">
         <v>36</v>
@@ -17613,7 +17613,7 @@
       </c>
     </row>
     <row r="142" spans="1:24" ht="16">
-      <c r="A142" s="29"/>
+      <c r="A142" s="34"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6" t="s">
         <v>37</v>
@@ -17674,7 +17674,7 @@
       </c>
     </row>
     <row r="143" spans="1:24" ht="16">
-      <c r="A143" s="29"/>
+      <c r="A143" s="34"/>
       <c r="B143" s="10" t="s">
         <v>61</v>
       </c>
@@ -17737,14 +17737,14 @@
       </c>
     </row>
     <row r="144" spans="1:24">
-      <c r="A144" s="29"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="16">
-      <c r="A145" s="29"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
         <v>36</v>
@@ -17805,7 +17805,7 @@
       </c>
     </row>
     <row r="146" spans="1:24">
-      <c r="A146" s="29"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
         <v>37</v>
@@ -17815,7 +17815,7 @@
       </c>
     </row>
     <row r="147" spans="1:24" ht="16">
-      <c r="A147" s="29"/>
+      <c r="A147" s="34"/>
       <c r="B147" s="10" t="s">
         <v>62</v>
       </c>
@@ -17878,14 +17878,14 @@
       </c>
     </row>
     <row r="148" spans="1:24">
-      <c r="A148" s="29"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="16">
-      <c r="A149" s="29"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
         <v>36</v>
@@ -17946,7 +17946,7 @@
       </c>
     </row>
     <row r="150" spans="1:24" ht="16">
-      <c r="A150" s="29"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6" t="s">
         <v>37</v>
@@ -18007,7 +18007,7 @@
       </c>
     </row>
     <row r="151" spans="1:24" ht="16">
-      <c r="A151" s="29"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="10" t="s">
         <v>63</v>
       </c>
@@ -18070,14 +18070,14 @@
       </c>
     </row>
     <row r="152" spans="1:24">
-      <c r="A152" s="29"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="16">
-      <c r="A153" s="29"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
         <v>36</v>
@@ -18138,7 +18138,7 @@
       </c>
     </row>
     <row r="154" spans="1:24" ht="16">
-      <c r="A154" s="29"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6" t="s">
         <v>37</v>
@@ -18199,7 +18199,7 @@
       </c>
     </row>
     <row r="155" spans="1:24" ht="16">
-      <c r="A155" s="29"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="10" t="s">
         <v>64</v>
       </c>
@@ -18262,14 +18262,14 @@
       </c>
     </row>
     <row r="156" spans="1:24">
-      <c r="A156" s="29"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="16">
-      <c r="A157" s="29"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
         <v>36</v>
@@ -18330,7 +18330,7 @@
       </c>
     </row>
     <row r="158" spans="1:24" ht="16">
-      <c r="A158" s="29"/>
+      <c r="A158" s="34"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6" t="s">
         <v>37</v>
@@ -18391,7 +18391,7 @@
       </c>
     </row>
     <row r="159" spans="1:24" ht="16">
-      <c r="A159" s="29"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="10" t="s">
         <v>65</v>
       </c>
@@ -18454,14 +18454,14 @@
       </c>
     </row>
     <row r="160" spans="1:24">
-      <c r="A160" s="29"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="16">
-      <c r="A161" s="29"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6" t="s">
         <v>36</v>
@@ -18522,7 +18522,7 @@
       </c>
     </row>
     <row r="162" spans="1:24" ht="16">
-      <c r="A162" s="29"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6" t="s">
         <v>37</v>
@@ -18583,7 +18583,7 @@
       </c>
     </row>
     <row r="163" spans="1:24" ht="16">
-      <c r="A163" s="29"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="24" t="s">
         <v>183</v>
       </c>
@@ -18646,14 +18646,14 @@
       </c>
     </row>
     <row r="164" spans="1:24">
-      <c r="A164" s="29"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="16">
-      <c r="A165" s="29"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
         <v>36</v>
@@ -18714,7 +18714,7 @@
       </c>
     </row>
     <row r="166" spans="1:24" ht="16">
-      <c r="A166" s="29"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6" t="s">
         <v>37</v>
@@ -18775,7 +18775,7 @@
       </c>
     </row>
     <row r="167" spans="1:24" ht="16">
-      <c r="A167" s="29"/>
+      <c r="A167" s="34"/>
       <c r="B167" s="24" t="s">
         <v>187</v>
       </c>
@@ -18838,14 +18838,14 @@
       </c>
     </row>
     <row r="168" spans="1:24">
-      <c r="A168" s="29"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="16">
-      <c r="A169" s="29"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6" t="s">
         <v>36</v>
@@ -18906,7 +18906,7 @@
       </c>
     </row>
     <row r="170" spans="1:24" ht="16">
-      <c r="A170" s="29"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6" t="s">
         <v>37</v>
@@ -18967,7 +18967,7 @@
       </c>
     </row>
     <row r="171" spans="1:24" ht="16">
-      <c r="A171" s="29"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="24" t="s">
         <v>191</v>
       </c>
@@ -19030,14 +19030,14 @@
       </c>
     </row>
     <row r="172" spans="1:24">
-      <c r="A172" s="29"/>
+      <c r="A172" s="34"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="16">
-      <c r="A173" s="29"/>
+      <c r="A173" s="34"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
         <v>36</v>
@@ -19098,7 +19098,7 @@
       </c>
     </row>
     <row r="174" spans="1:24" ht="16">
-      <c r="A174" s="29"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
         <v>37</v>
@@ -19159,7 +19159,7 @@
       </c>
     </row>
     <row r="175" spans="1:24" ht="16">
-      <c r="A175" s="29"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="6" t="s">
         <v>194</v>
       </c>
@@ -19222,7 +19222,7 @@
       </c>
     </row>
     <row r="176" spans="1:24" ht="16">
-      <c r="A176" s="29"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6" t="s">
         <v>35</v>
@@ -19253,7 +19253,7 @@
       </c>
     </row>
     <row r="177" spans="1:24" ht="16">
-      <c r="A177" s="29"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6" t="s">
         <v>36</v>
@@ -19314,7 +19314,7 @@
       </c>
     </row>
     <row r="178" spans="1:24" ht="16">
-      <c r="A178" s="29"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
         <v>37</v>
@@ -19375,7 +19375,7 @@
       </c>
     </row>
     <row r="179" spans="1:24" ht="16">
-      <c r="A179" s="29"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="24" t="s">
         <v>198</v>
       </c>
@@ -19438,14 +19438,14 @@
       </c>
     </row>
     <row r="180" spans="1:24">
-      <c r="A180" s="29"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="16">
-      <c r="A181" s="29"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6" t="s">
         <v>36</v>
@@ -19506,7 +19506,7 @@
       </c>
     </row>
     <row r="182" spans="1:24" ht="16">
-      <c r="A182" s="29"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6" t="s">
         <v>37</v>
@@ -19567,7 +19567,7 @@
       </c>
     </row>
     <row r="183" spans="1:24" ht="28">
-      <c r="A183" s="29"/>
+      <c r="A183" s="34"/>
       <c r="B183" s="24" t="s">
         <v>201</v>
       </c>
@@ -19630,14 +19630,14 @@
       </c>
     </row>
     <row r="184" spans="1:24">
-      <c r="A184" s="29"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="16">
-      <c r="A185" s="29"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6" t="s">
         <v>36</v>
@@ -19698,7 +19698,7 @@
       </c>
     </row>
     <row r="186" spans="1:24" ht="16">
-      <c r="A186" s="29"/>
+      <c r="A186" s="34"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6" t="s">
         <v>37</v>
@@ -19759,7 +19759,7 @@
       </c>
     </row>
     <row r="187" spans="1:24" ht="16">
-      <c r="A187" s="29"/>
+      <c r="A187" s="34"/>
       <c r="B187" s="24" t="s">
         <v>204</v>
       </c>
@@ -19822,14 +19822,14 @@
       </c>
     </row>
     <row r="188" spans="1:24">
-      <c r="A188" s="29"/>
+      <c r="A188" s="34"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="16">
-      <c r="A189" s="29"/>
+      <c r="A189" s="34"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6" t="s">
         <v>36</v>
@@ -19890,7 +19890,7 @@
       </c>
     </row>
     <row r="190" spans="1:24" ht="16">
-      <c r="A190" s="29"/>
+      <c r="A190" s="34"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6" t="s">
         <v>37</v>
@@ -19951,7 +19951,7 @@
       </c>
     </row>
     <row r="192" spans="1:24">
-      <c r="A192" s="31" t="s">
+      <c r="A192" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="5" t="s">
@@ -19962,28 +19962,28 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="31"/>
+      <c r="A193" s="36"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="31"/>
+      <c r="A194" s="36"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="31"/>
+      <c r="A195" s="36"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14">
-      <c r="A196" s="31"/>
+      <c r="A196" s="36"/>
       <c r="B196" s="25" t="s">
         <v>211</v>
       </c>
@@ -19992,28 +19992,28 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="31"/>
+      <c r="A197" s="36"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="31"/>
+      <c r="A198" s="36"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="31"/>
+      <c r="A199" s="36"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14">
-      <c r="A200" s="31"/>
+      <c r="A200" s="36"/>
       <c r="B200" s="25" t="s">
         <v>215</v>
       </c>
@@ -20022,28 +20022,28 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="31"/>
+      <c r="A201" s="36"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="31"/>
+      <c r="A202" s="36"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="31"/>
+      <c r="A203" s="36"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14">
-      <c r="A204" s="31"/>
+      <c r="A204" s="36"/>
       <c r="B204" s="25" t="s">
         <v>219</v>
       </c>
@@ -20052,28 +20052,28 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="31"/>
+      <c r="A205" s="36"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="31"/>
+      <c r="A206" s="36"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="31"/>
+      <c r="A207" s="36"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14">
-      <c r="A208" s="31"/>
+      <c r="A208" s="36"/>
       <c r="B208" s="25" t="s">
         <v>223</v>
       </c>
@@ -20082,28 +20082,28 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="31"/>
+      <c r="A209" s="36"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="31"/>
+      <c r="A210" s="36"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="31"/>
+      <c r="A211" s="36"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14">
-      <c r="A212" s="31"/>
+      <c r="A212" s="36"/>
       <c r="B212" s="25" t="s">
         <v>226</v>
       </c>
@@ -20112,28 +20112,28 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="31"/>
+      <c r="A213" s="36"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="31"/>
+      <c r="A214" s="36"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="31"/>
+      <c r="A215" s="36"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14">
-      <c r="A216" s="31"/>
+      <c r="A216" s="36"/>
       <c r="B216" s="25" t="s">
         <v>231</v>
       </c>
@@ -20142,28 +20142,28 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="31"/>
+      <c r="A217" s="36"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="31"/>
+      <c r="A218" s="36"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="31"/>
+      <c r="A219" s="36"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14">
-      <c r="A220" s="31"/>
+      <c r="A220" s="36"/>
       <c r="B220" s="25" t="s">
         <v>235</v>
       </c>
@@ -20172,28 +20172,28 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="31"/>
+      <c r="A221" s="36"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="31"/>
+      <c r="A222" s="36"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="31"/>
+      <c r="A223" s="36"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14">
-      <c r="A224" s="31"/>
+      <c r="A224" s="36"/>
       <c r="B224" s="7" t="s">
         <v>66</v>
       </c>
@@ -20202,28 +20202,28 @@
       </c>
     </row>
     <row r="225" spans="1:24">
-      <c r="A225" s="31"/>
+      <c r="A225" s="36"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:24">
-      <c r="A226" s="31"/>
+      <c r="A226" s="36"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:24">
-      <c r="A227" s="31"/>
+      <c r="A227" s="36"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:24">
-      <c r="A228" s="31"/>
+      <c r="A228" s="36"/>
       <c r="B228" s="17" t="s">
         <v>67</v>
       </c>
@@ -20232,21 +20232,21 @@
       </c>
     </row>
     <row r="229" spans="1:24">
-      <c r="A229" s="31"/>
+      <c r="A229" s="36"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:24">
-      <c r="A230" s="31"/>
+      <c r="A230" s="36"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:24">
-      <c r="A231" s="31"/>
+      <c r="A231" s="36"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5" t="s">
         <v>37</v>
@@ -20313,16 +20313,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:A51"/>
+    <mergeCell ref="A123:A190"/>
+    <mergeCell ref="A53:A120"/>
+    <mergeCell ref="A192:A231"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:A51"/>
-    <mergeCell ref="A123:A190"/>
-    <mergeCell ref="A53:A120"/>
-    <mergeCell ref="A192:A231"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20337,9 +20337,9 @@
   </sheetPr>
   <dimension ref="A3:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C183" sqref="C183"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -20364,7 +20364,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -20384,19 +20384,19 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="28"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="14">
-      <c r="A8" s="28"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -20414,19 +20414,19 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="28"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="28"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="28"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="14">
-      <c r="A12" s="28"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -20444,19 +20444,19 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="28"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="28"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="28"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="14">
-      <c r="A16" s="28"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -20474,19 +20474,19 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="28"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="28"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="28"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="14">
-      <c r="A20" s="28"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -20504,19 +20504,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="28"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="28"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="28"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="14">
-      <c r="A24" s="28"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="21" t="s">
         <v>80</v>
       </c>
@@ -20534,19 +20534,19 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="28"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="28"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="28"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="14">
-      <c r="A28" s="28"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
@@ -20564,19 +20564,19 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="28"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="28"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="28"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="28"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="8" t="s">
         <v>86</v>
       </c>
@@ -20594,19 +20594,19 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="28"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="28"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="28"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="14">
-      <c r="A36" s="28"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -20624,19 +20624,19 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="28"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="28"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="28"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="14">
-      <c r="A40" s="28"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="9" t="s">
         <v>46</v>
       </c>
@@ -20654,19 +20654,19 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="28"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="28"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="28"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="14">
-      <c r="A44" s="28"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
@@ -20684,19 +20684,19 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="28"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="28"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="28"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:6" ht="14">
-      <c r="A48" s="28"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
@@ -20714,19 +20714,19 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="28"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="28"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="28"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="8"/>
     </row>
     <row r="53" spans="1:6" ht="14">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -20746,19 +20746,19 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="30"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="30"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="30"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="14">
-      <c r="A57" s="30"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
@@ -20776,19 +20776,19 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="30"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="30"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="30"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="14">
-      <c r="A61" s="30"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="4" t="s">
         <v>50</v>
       </c>
@@ -20806,19 +20806,19 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="30"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="30"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="30"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="14">
-      <c r="A65" s="30"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="23" t="s">
         <v>115</v>
       </c>
@@ -20836,19 +20836,19 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="30"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="30"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="30"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="14">
-      <c r="A69" s="30"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="23" t="s">
         <v>116</v>
       </c>
@@ -20866,19 +20866,19 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="30"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="30"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="30"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="14">
-      <c r="A73" s="30"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
@@ -20896,19 +20896,19 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="30"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="30"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="30"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="14">
-      <c r="A77" s="30"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="4" t="s">
         <v>52</v>
       </c>
@@ -20926,19 +20926,19 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="30"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="30"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="30"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="14">
-      <c r="A81" s="30"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="4" t="s">
         <v>53</v>
       </c>
@@ -20956,19 +20956,19 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="30"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="30"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="30"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="14">
-      <c r="A85" s="30"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="4" t="s">
         <v>54</v>
       </c>
@@ -20986,19 +20986,19 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="30"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="30"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="30"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="14">
-      <c r="A89" s="30"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="23" t="s">
         <v>132</v>
       </c>
@@ -21016,19 +21016,19 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="30"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="30"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="30"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="14">
-      <c r="A93" s="30"/>
+      <c r="A93" s="35"/>
       <c r="B93" s="23" t="s">
         <v>137</v>
       </c>
@@ -21046,19 +21046,19 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="30"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="30"/>
+      <c r="A95" s="35"/>
       <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="30"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="14">
-      <c r="A97" s="30"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="4" t="s">
         <v>142</v>
       </c>
@@ -21076,19 +21076,19 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="30"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="30"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="30"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="14">
-      <c r="A101" s="30"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="23" t="s">
         <v>145</v>
       </c>
@@ -21106,19 +21106,19 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="30"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="1"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="30"/>
+      <c r="A103" s="35"/>
       <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="30"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="14">
-      <c r="A105" s="30"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="23" t="s">
         <v>147</v>
       </c>
@@ -21136,19 +21136,19 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="30"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="30"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="30"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="14">
-      <c r="A109" s="30"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="23" t="s">
         <v>148</v>
       </c>
@@ -21166,19 +21166,19 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="30"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="30"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="30"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:6" ht="14">
-      <c r="A113" s="30"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="23" t="s">
         <v>152</v>
       </c>
@@ -21196,19 +21196,19 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="30"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="30"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="30"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:6" ht="14">
-      <c r="A117" s="30"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="4" t="s">
         <v>55</v>
       </c>
@@ -21226,19 +21226,19 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="30"/>
+      <c r="A118" s="35"/>
       <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="30"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="30"/>
+      <c r="A120" s="35"/>
       <c r="B120" s="1"/>
     </row>
     <row r="123" spans="1:6" ht="14">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="34" t="s">
         <v>181</v>
       </c>
       <c r="B123" s="10" t="s">
@@ -21258,19 +21258,19 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="29"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="6"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="29"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="6"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="29"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="6"/>
     </row>
     <row r="127" spans="1:6" ht="14">
-      <c r="A127" s="29"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="10" t="s">
         <v>57</v>
       </c>
@@ -21288,19 +21288,19 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="29"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="6"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="29"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="6"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="29"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="6"/>
     </row>
     <row r="131" spans="1:6" ht="14">
-      <c r="A131" s="29"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="10" t="s">
         <v>58</v>
       </c>
@@ -21318,19 +21318,19 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="29"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="6"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="29"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="6"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="29"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="6"/>
     </row>
     <row r="135" spans="1:6" ht="14">
-      <c r="A135" s="29"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="10" t="s">
         <v>59</v>
       </c>
@@ -21348,19 +21348,19 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="29"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="6"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="29"/>
+      <c r="A137" s="34"/>
       <c r="B137" s="6"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="29"/>
+      <c r="A138" s="34"/>
       <c r="B138" s="6"/>
     </row>
     <row r="139" spans="1:6" ht="14">
-      <c r="A139" s="29"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="10" t="s">
         <v>60</v>
       </c>
@@ -21378,19 +21378,19 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="29"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="6"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="29"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="29"/>
+      <c r="A142" s="34"/>
       <c r="B142" s="6"/>
     </row>
     <row r="143" spans="1:6" ht="14">
-      <c r="A143" s="29"/>
+      <c r="A143" s="34"/>
       <c r="B143" s="10" t="s">
         <v>61</v>
       </c>
@@ -21408,19 +21408,19 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="29"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="6"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="29"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="6"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="29"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="6"/>
     </row>
     <row r="147" spans="1:6" ht="14">
-      <c r="A147" s="29"/>
+      <c r="A147" s="34"/>
       <c r="B147" s="10" t="s">
         <v>62</v>
       </c>
@@ -21438,19 +21438,19 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="29"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="6"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="29"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="6"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="29"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="6"/>
     </row>
     <row r="151" spans="1:6" ht="14">
-      <c r="A151" s="29"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="10" t="s">
         <v>63</v>
       </c>
@@ -21468,19 +21468,19 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="29"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="6"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="29"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="6"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="29"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="6"/>
     </row>
     <row r="155" spans="1:6" ht="14">
-      <c r="A155" s="29"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="10" t="s">
         <v>64</v>
       </c>
@@ -21498,19 +21498,19 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="29"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="6"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="29"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="6"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="29"/>
+      <c r="A158" s="34"/>
       <c r="B158" s="6"/>
     </row>
     <row r="159" spans="1:6" ht="14">
-      <c r="A159" s="29"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="10" t="s">
         <v>65</v>
       </c>
@@ -21528,19 +21528,19 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="29"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="6"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="29"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="6"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="29"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="6"/>
     </row>
     <row r="163" spans="1:6" ht="14">
-      <c r="A163" s="29"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="24" t="s">
         <v>183</v>
       </c>
@@ -21558,19 +21558,19 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="29"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="6"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="29"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="6"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="29"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="6"/>
     </row>
     <row r="167" spans="1:6" ht="14">
-      <c r="A167" s="29"/>
+      <c r="A167" s="34"/>
       <c r="B167" s="24" t="s">
         <v>187</v>
       </c>
@@ -21588,19 +21588,19 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="29"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="6"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="29"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="6"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="29"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="6"/>
     </row>
     <row r="171" spans="1:6" ht="14">
-      <c r="A171" s="29"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="24" t="s">
         <v>191</v>
       </c>
@@ -21618,19 +21618,19 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="29"/>
+      <c r="A172" s="34"/>
       <c r="B172" s="6"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="29"/>
+      <c r="A173" s="34"/>
       <c r="B173" s="6"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="29"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="6"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="29"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="6" t="s">
         <v>194</v>
       </c>
@@ -21648,19 +21648,19 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="29"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="6"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="29"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="6"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="29"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="6"/>
     </row>
     <row r="179" spans="1:6" ht="14">
-      <c r="A179" s="29"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="24" t="s">
         <v>198</v>
       </c>
@@ -21678,19 +21678,19 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="29"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="6"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="29"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="6"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="29"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="6"/>
     </row>
     <row r="183" spans="1:6" ht="28">
-      <c r="A183" s="29"/>
+      <c r="A183" s="34"/>
       <c r="B183" s="24" t="s">
         <v>201</v>
       </c>
@@ -21708,19 +21708,19 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="29"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="6"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="29"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="6"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="29"/>
+      <c r="A186" s="34"/>
       <c r="B186" s="6"/>
     </row>
     <row r="187" spans="1:6" ht="14">
-      <c r="A187" s="29"/>
+      <c r="A187" s="34"/>
       <c r="B187" s="24" t="s">
         <v>204</v>
       </c>
@@ -21738,19 +21738,19 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="29"/>
+      <c r="A188" s="34"/>
       <c r="B188" s="6"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="29"/>
+      <c r="A189" s="34"/>
       <c r="B189" s="6"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="29"/>
+      <c r="A190" s="34"/>
       <c r="B190" s="6"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="31" t="s">
+      <c r="A192" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="5" t="s">
@@ -21770,19 +21770,19 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="31"/>
+      <c r="A193" s="36"/>
       <c r="B193" s="5"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="31"/>
+      <c r="A194" s="36"/>
       <c r="B194" s="5"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="31"/>
+      <c r="A195" s="36"/>
       <c r="B195" s="5"/>
     </row>
     <row r="196" spans="1:6" ht="14">
-      <c r="A196" s="31"/>
+      <c r="A196" s="36"/>
       <c r="B196" s="25" t="s">
         <v>211</v>
       </c>
@@ -21800,19 +21800,19 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="31"/>
+      <c r="A197" s="36"/>
       <c r="B197" s="5"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="31"/>
+      <c r="A198" s="36"/>
       <c r="B198" s="5"/>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="31"/>
+      <c r="A199" s="36"/>
       <c r="B199" s="5"/>
     </row>
     <row r="200" spans="1:6" ht="14">
-      <c r="A200" s="31"/>
+      <c r="A200" s="36"/>
       <c r="B200" s="25" t="s">
         <v>215</v>
       </c>
@@ -21830,19 +21830,19 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="31"/>
+      <c r="A201" s="36"/>
       <c r="B201" s="5"/>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="31"/>
+      <c r="A202" s="36"/>
       <c r="B202" s="5"/>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="31"/>
+      <c r="A203" s="36"/>
       <c r="B203" s="5"/>
     </row>
     <row r="204" spans="1:6" ht="14">
-      <c r="A204" s="31"/>
+      <c r="A204" s="36"/>
       <c r="B204" s="25" t="s">
         <v>219</v>
       </c>
@@ -21860,19 +21860,19 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="31"/>
+      <c r="A205" s="36"/>
       <c r="B205" s="5"/>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="31"/>
+      <c r="A206" s="36"/>
       <c r="B206" s="5"/>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="31"/>
+      <c r="A207" s="36"/>
       <c r="B207" s="5"/>
     </row>
     <row r="208" spans="1:6" ht="14">
-      <c r="A208" s="31"/>
+      <c r="A208" s="36"/>
       <c r="B208" s="25" t="s">
         <v>223</v>
       </c>
@@ -21890,19 +21890,19 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="31"/>
+      <c r="A209" s="36"/>
       <c r="B209" s="5"/>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="31"/>
+      <c r="A210" s="36"/>
       <c r="B210" s="5"/>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="31"/>
+      <c r="A211" s="36"/>
       <c r="B211" s="5"/>
     </row>
     <row r="212" spans="1:6" ht="14">
-      <c r="A212" s="31"/>
+      <c r="A212" s="36"/>
       <c r="B212" s="25" t="s">
         <v>226</v>
       </c>
@@ -21920,19 +21920,19 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="31"/>
+      <c r="A213" s="36"/>
       <c r="B213" s="5"/>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="31"/>
+      <c r="A214" s="36"/>
       <c r="B214" s="5"/>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="31"/>
+      <c r="A215" s="36"/>
       <c r="B215" s="5"/>
     </row>
     <row r="216" spans="1:6" ht="14">
-      <c r="A216" s="31"/>
+      <c r="A216" s="36"/>
       <c r="B216" s="25" t="s">
         <v>231</v>
       </c>
@@ -21950,19 +21950,19 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="31"/>
+      <c r="A217" s="36"/>
       <c r="B217" s="5"/>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="31"/>
+      <c r="A218" s="36"/>
       <c r="B218" s="5"/>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="31"/>
+      <c r="A219" s="36"/>
       <c r="B219" s="5"/>
     </row>
     <row r="220" spans="1:6" ht="14">
-      <c r="A220" s="31"/>
+      <c r="A220" s="36"/>
       <c r="B220" s="25" t="s">
         <v>235</v>
       </c>
@@ -21980,19 +21980,19 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="31"/>
+      <c r="A221" s="36"/>
       <c r="B221" s="5"/>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="31"/>
+      <c r="A222" s="36"/>
       <c r="B222" s="5"/>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="31"/>
+      <c r="A223" s="36"/>
       <c r="B223" s="5"/>
     </row>
     <row r="224" spans="1:6" ht="14">
-      <c r="A224" s="31"/>
+      <c r="A224" s="36"/>
       <c r="B224" s="7" t="s">
         <v>66</v>
       </c>
@@ -22010,19 +22010,19 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="31"/>
+      <c r="A225" s="36"/>
       <c r="B225" s="5"/>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="31"/>
+      <c r="A226" s="36"/>
       <c r="B226" s="5"/>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="31"/>
+      <c r="A227" s="36"/>
       <c r="B227" s="5"/>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="31"/>
+      <c r="A228" s="36"/>
       <c r="B228" s="17" t="s">
         <v>67</v>
       </c>
@@ -22040,15 +22040,15 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="31"/>
+      <c r="A229" s="36"/>
       <c r="B229" s="5"/>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="31"/>
+      <c r="A230" s="36"/>
       <c r="B230" s="5"/>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="31"/>
+      <c r="A231" s="36"/>
       <c r="B231" s="5"/>
     </row>
   </sheetData>
